--- a/products analysis/reference compounds analysis/SCCPProdref list and analysis.xlsx
+++ b/products analysis/reference compounds analysis/SCCPProdref list and analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skutarna\Documents\MSc 2\NTA\TargetDecoy\products analysis\reference compounds analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25AEB528-83E1-4A50-BF1E-1B87D8BD9E9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A8B654-F3F9-434C-97A2-F27F25055D14}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1EB0EB00-CAC1-4803-AD13-83FA2283711D}"/>
   </bookViews>
@@ -772,7 +772,7 @@
   <dimension ref="A1:Y47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -871,9 +871,12 @@
       <c r="D2">
         <v>348.94319300000001</v>
       </c>
+      <c r="E2">
+        <v>348.94389999999999</v>
+      </c>
       <c r="F2">
         <f>(E2-D2)/D2*10^6</f>
-        <v>-1000000</v>
+        <v>2.0261177583055545</v>
       </c>
       <c r="K2" t="s">
         <v>52</v>
@@ -904,9 +907,12 @@
       <c r="D3">
         <v>382.90422100000001</v>
       </c>
+      <c r="E3">
+        <v>382.90463</v>
+      </c>
       <c r="F3">
         <f t="shared" ref="F3:F31" si="0">(E3-D3)/D3*10^6</f>
-        <v>-1000000</v>
+        <v>1.0681522364062834</v>
       </c>
       <c r="K3" t="s">
         <v>62</v>
@@ -937,9 +943,12 @@
       <c r="D4">
         <v>418.86229900000001</v>
       </c>
+      <c r="E4">
+        <v>418.86291999999997</v>
+      </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>-1000000</v>
+        <v>1.4825874791058673</v>
       </c>
       <c r="K4" t="s">
         <v>73</v>
@@ -970,12 +979,9 @@
       <c r="D5">
         <v>452.82332700000001</v>
       </c>
-      <c r="E5">
-        <v>452.8263</v>
-      </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>6.5654744858080774</v>
+        <v>-1000000</v>
       </c>
       <c r="K5" t="s">
         <v>53</v>
@@ -1006,12 +1012,9 @@
       <c r="D6">
         <v>486.78435500000001</v>
       </c>
-      <c r="E6">
-        <v>486.78300000000002</v>
-      </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>-2.7835734367213978</v>
+        <v>-1000000</v>
       </c>
       <c r="K6" t="s">
         <v>85</v>
@@ -1042,12 +1045,9 @@
       <c r="D7">
         <v>520.74538299999995</v>
       </c>
-      <c r="E7">
-        <v>520.74090999999999</v>
-      </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>-8.5896104814082594</v>
+        <v>-1000000</v>
       </c>
       <c r="K7" t="s">
         <v>63</v>

--- a/products analysis/reference compounds analysis/SCCPProdref list and analysis.xlsx
+++ b/products analysis/reference compounds analysis/SCCPProdref list and analysis.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skutarna\Documents\MSc 2\NTA\TargetDecoy\products analysis\reference compounds analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steven\Target Decoy\products analysis\reference compounds analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A8B654-F3F9-434C-97A2-F27F25055D14}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2D9311-51F5-4360-85B9-03B5A54BD914}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1EB0EB00-CAC1-4803-AD13-83FA2283711D}"/>
+    <workbookView xWindow="12870" yWindow="1140" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{1EB0EB00-CAC1-4803-AD13-83FA2283711D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sample100" sheetId="1" r:id="rId1"/>
+    <sheet name="Sample99" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="132">
   <si>
     <t>SCCP m/z</t>
   </si>
@@ -417,7 +418,16 @@
     <t>C13H15Cl14</t>
   </si>
   <si>
-    <t>100_300_Neg_JeansD</t>
+    <t>+e-</t>
+  </si>
+  <si>
+    <t>100_300_Neg_Sample_100</t>
+  </si>
+  <si>
+    <t>100_300_Neg_Sample_99</t>
+  </si>
+  <si>
+    <t>xcmsRaw match</t>
   </si>
 </sst>
 </file>
@@ -433,12 +443,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -453,8 +469,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,27 +789,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F26ABEB-F7B0-4AE9-90A1-67889DFCE138}">
-  <dimension ref="A1:Y47"/>
+  <dimension ref="A1:AA47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:AB1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" customWidth="1"/>
-    <col min="11" max="11" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="9.26953125" customWidth="1"/>
-    <col min="19" max="19" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="9.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="9.28515625" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -800,104 +820,111 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
-        <v>128</v>
-      </c>
       <c r="K1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" t="s">
         <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1</v>
       </c>
       <c r="M1" t="s">
         <v>1</v>
       </c>
       <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>3</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>3</v>
       </c>
-      <c r="R1" t="s">
-        <v>128</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
+        <v>129</v>
+      </c>
+      <c r="U1" t="s">
         <v>6</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>2</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>2</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>4</v>
-      </c>
-      <c r="W1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X1" t="s">
-        <v>5</v>
       </c>
       <c r="Y1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>98</v>
       </c>
       <c r="C2">
         <v>348.94319300000001</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>348.94319300000001</v>
       </c>
-      <c r="E2">
-        <v>348.94389999999999</v>
+      <c r="E2" s="1">
+        <f>D2+0.00054858</f>
+        <v>348.94374157999999</v>
       </c>
       <c r="F2">
-        <f>(E2-D2)/D2*10^6</f>
-        <v>2.0261177583055545</v>
-      </c>
-      <c r="K2" t="s">
+        <v>348.9434</v>
+      </c>
+      <c r="G2">
+        <f>(F2-E2)/E2*10^6</f>
+        <v>-0.97889705214487754</v>
+      </c>
+      <c r="L2" t="s">
         <v>52</v>
-      </c>
-      <c r="L2">
-        <v>405.00579299999998</v>
       </c>
       <c r="M2">
         <v>405.00579299999998</v>
       </c>
-      <c r="S2" t="s">
+      <c r="N2">
+        <v>405.00579299999998</v>
+      </c>
+      <c r="U2" t="s">
         <v>7</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>461.06839300000001</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>461.06839300000001</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>99</v>
       </c>
@@ -907,33 +934,37 @@
       <c r="D3">
         <v>382.90422100000001</v>
       </c>
-      <c r="E3">
-        <v>382.90463</v>
+      <c r="E3" s="1">
+        <f>D3+0.00054858</f>
+        <v>382.90476957999999</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F31" si="0">(E3-D3)/D3*10^6</f>
-        <v>1.0681522364062834</v>
-      </c>
-      <c r="K3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3">
-        <v>419.02144299999998</v>
+        <v>382.90460000000002</v>
+      </c>
+      <c r="G3">
+        <f>(F3-E3)/E3*10^6</f>
+        <v>-0.44287774258488721</v>
+      </c>
+      <c r="L3" t="s">
+        <v>53</v>
       </c>
       <c r="M3">
-        <v>419.02144299999998</v>
-      </c>
-      <c r="S3" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3">
-        <v>475.08404300000001</v>
-      </c>
-      <c r="U3">
-        <v>475.08404300000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+        <v>438.96682099999998</v>
+      </c>
+      <c r="N3">
+        <v>438.96682099999998</v>
+      </c>
+      <c r="U3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V3">
+        <v>495.02942100000001</v>
+      </c>
+      <c r="W3">
+        <v>495.02942100000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>100</v>
       </c>
@@ -943,33 +974,37 @@
       <c r="D4">
         <v>418.86229900000001</v>
       </c>
-      <c r="E4">
-        <v>418.86291999999997</v>
+      <c r="E4" s="1">
+        <f>D4+0.00054858</f>
+        <v>418.86284757999999</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>1.4825874791058673</v>
-      </c>
-      <c r="K4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4">
-        <v>433.03709300000003</v>
+        <v>418.86290000000002</v>
+      </c>
+      <c r="G4">
+        <f>(F4-E4)/E4*10^6</f>
+        <v>0.12514836380027569</v>
+      </c>
+      <c r="L4" t="s">
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>433.03709300000003</v>
-      </c>
-      <c r="S4" t="s">
-        <v>36</v>
-      </c>
-      <c r="T4">
-        <v>489.099693</v>
-      </c>
-      <c r="U4">
-        <v>489.099693</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+        <v>474.92489899999998</v>
+      </c>
+      <c r="N4">
+        <v>474.92489899999998</v>
+      </c>
+      <c r="U4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4">
+        <v>530.98749899999996</v>
+      </c>
+      <c r="W4">
+        <v>530.98749899999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>101</v>
       </c>
@@ -979,30 +1014,30 @@
       <c r="D5">
         <v>452.82332700000001</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5">
-        <v>438.96682099999998</v>
+      <c r="E5" s="1">
+        <f>D5+0.00054858</f>
+        <v>452.82387557999999</v>
+      </c>
+      <c r="L5" t="s">
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>438.96682099999998</v>
-      </c>
-      <c r="S5" t="s">
-        <v>8</v>
-      </c>
-      <c r="T5">
-        <v>495.02942100000001</v>
-      </c>
-      <c r="U5">
-        <v>495.02942100000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+        <v>508.88592699999998</v>
+      </c>
+      <c r="N5">
+        <v>508.88592699999998</v>
+      </c>
+      <c r="U5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V5">
+        <v>564.94852700000001</v>
+      </c>
+      <c r="W5">
+        <v>564.94852700000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>102</v>
       </c>
@@ -1012,30 +1047,30 @@
       <c r="D6">
         <v>486.78435500000001</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6">
-        <v>447.05274300000002</v>
+      <c r="E6" s="1">
+        <f>D6+0.00054858</f>
+        <v>486.78490357999999</v>
+      </c>
+      <c r="L6" t="s">
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>447.05274300000002</v>
-      </c>
-      <c r="S6" t="s">
-        <v>22</v>
-      </c>
-      <c r="T6">
-        <v>509.04507100000001</v>
-      </c>
-      <c r="U6">
-        <v>509.04507100000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+        <v>542.84695499999998</v>
+      </c>
+      <c r="N6">
+        <v>542.84695499999998</v>
+      </c>
+      <c r="U6" t="s">
+        <v>11</v>
+      </c>
+      <c r="V6">
+        <v>598.90955499999995</v>
+      </c>
+      <c r="W6">
+        <v>598.90955499999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>103</v>
       </c>
@@ -1045,30 +1080,30 @@
       <c r="D7">
         <v>520.74538299999995</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7">
-        <v>452.98247099999998</v>
+      <c r="E7" s="1">
+        <f>D7+0.00054858</f>
+        <v>520.74593157999993</v>
+      </c>
+      <c r="L7" t="s">
+        <v>57</v>
       </c>
       <c r="M7">
-        <v>452.98247099999998</v>
-      </c>
-      <c r="S7" t="s">
-        <v>37</v>
-      </c>
-      <c r="T7">
-        <v>523.06072099999994</v>
-      </c>
-      <c r="U7">
-        <v>523.06072099999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+        <v>576.80798300000004</v>
+      </c>
+      <c r="N7">
+        <v>576.80798300000004</v>
+      </c>
+      <c r="U7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7">
+        <v>632.87058300000001</v>
+      </c>
+      <c r="W7">
+        <v>632.87058300000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>104</v>
       </c>
@@ -1078,30 +1113,37 @@
       <c r="D8">
         <v>362.958843</v>
       </c>
+      <c r="E8" s="1">
+        <f>D8+0.00054858</f>
+        <v>362.95939157999999</v>
+      </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L8">
-        <v>466.99812100000003</v>
+        <v>362.95870000000002</v>
+      </c>
+      <c r="G8">
+        <f>(F8-E8)/E8*10^6</f>
+        <v>-1.9053922174476117</v>
+      </c>
+      <c r="L8" t="s">
+        <v>58</v>
       </c>
       <c r="M8">
-        <v>466.99812100000003</v>
-      </c>
-      <c r="S8" t="s">
-        <v>9</v>
-      </c>
-      <c r="T8">
-        <v>530.98749899999996</v>
-      </c>
-      <c r="U8">
-        <v>530.98749899999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+        <v>612.76606100000004</v>
+      </c>
+      <c r="N8">
+        <v>612.76606100000004</v>
+      </c>
+      <c r="U8" t="s">
+        <v>13</v>
+      </c>
+      <c r="V8">
+        <v>668.82866100000001</v>
+      </c>
+      <c r="W8">
+        <v>668.82866100000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>105</v>
       </c>
@@ -1111,30 +1153,37 @@
       <c r="D9">
         <v>396.919871</v>
       </c>
+      <c r="E9" s="1">
+        <f>D9+0.00054858</f>
+        <v>396.92041957999999</v>
+      </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9">
-        <v>474.92489899999998</v>
+        <v>396.91840000000002</v>
+      </c>
+      <c r="G9">
+        <f>(F9-E9)/E9*10^6</f>
+        <v>-5.08812321145873</v>
+      </c>
+      <c r="L9" t="s">
+        <v>59</v>
       </c>
       <c r="M9">
-        <v>474.92489899999998</v>
-      </c>
-      <c r="S9" t="s">
-        <v>23</v>
-      </c>
-      <c r="T9">
-        <v>545.00314900000001</v>
-      </c>
-      <c r="U9">
-        <v>545.00314900000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+        <v>646.72708899999998</v>
+      </c>
+      <c r="N9">
+        <v>646.72708899999998</v>
+      </c>
+      <c r="U9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V9">
+        <v>702.78968899999995</v>
+      </c>
+      <c r="W9">
+        <v>702.78968899999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>106</v>
       </c>
@@ -1144,30 +1193,30 @@
       <c r="D10">
         <v>432.877949</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K10" t="s">
-        <v>86</v>
-      </c>
-      <c r="L10">
-        <v>481.01377100000002</v>
+      <c r="E10" s="1">
+        <f>D10+0.00054858</f>
+        <v>432.87849757999999</v>
+      </c>
+      <c r="L10" t="s">
+        <v>60</v>
       </c>
       <c r="M10">
-        <v>481.01377100000002</v>
-      </c>
-      <c r="S10" t="s">
-        <v>38</v>
-      </c>
-      <c r="T10">
-        <v>559.01879899999994</v>
-      </c>
-      <c r="U10">
-        <v>559.01879899999994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+        <v>680.68811700000003</v>
+      </c>
+      <c r="N10">
+        <v>680.68811700000003</v>
+      </c>
+      <c r="U10" t="s">
+        <v>15</v>
+      </c>
+      <c r="V10">
+        <v>736.75071700000001</v>
+      </c>
+      <c r="W10">
+        <v>736.75071700000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>107</v>
       </c>
@@ -1177,30 +1226,30 @@
       <c r="D11">
         <v>466.838977</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K11" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11">
-        <v>488.94054899999998</v>
+      <c r="E11" s="1">
+        <f>D11+0.00054858</f>
+        <v>466.83952557999999</v>
+      </c>
+      <c r="L11" t="s">
+        <v>61</v>
       </c>
       <c r="M11">
-        <v>488.94054899999998</v>
-      </c>
-      <c r="S11" t="s">
-        <v>10</v>
-      </c>
-      <c r="T11">
-        <v>564.94852700000001</v>
-      </c>
-      <c r="U11">
-        <v>564.94852700000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+        <v>714.64914499999998</v>
+      </c>
+      <c r="N11">
+        <v>714.64914499999998</v>
+      </c>
+      <c r="U11" t="s">
+        <v>16</v>
+      </c>
+      <c r="V11">
+        <v>770.71174499999995</v>
+      </c>
+      <c r="W11">
+        <v>770.71174499999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>108</v>
       </c>
@@ -1210,30 +1259,30 @@
       <c r="D12">
         <v>500.800005</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K12" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12">
-        <v>502.95619900000003</v>
+      <c r="E12" s="1">
+        <f>D12+0.00054858</f>
+        <v>500.80055357999998</v>
+      </c>
+      <c r="L12" t="s">
+        <v>62</v>
       </c>
       <c r="M12">
-        <v>502.95619900000003</v>
-      </c>
-      <c r="S12" t="s">
-        <v>24</v>
-      </c>
-      <c r="T12">
-        <v>578.96417699999995</v>
-      </c>
-      <c r="U12">
-        <v>578.96417699999995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+        <v>419.02144299999998</v>
+      </c>
+      <c r="N12">
+        <v>419.02144299999998</v>
+      </c>
+      <c r="U12" t="s">
+        <v>17</v>
+      </c>
+      <c r="V12">
+        <v>806.66982299999995</v>
+      </c>
+      <c r="W12">
+        <v>806.66982299999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>109</v>
       </c>
@@ -1243,30 +1292,30 @@
       <c r="D13">
         <v>534.761033</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K13" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13">
-        <v>508.88592699999998</v>
+      <c r="E13" s="1">
+        <f>D13+0.00054858</f>
+        <v>534.76158157999998</v>
+      </c>
+      <c r="L13" t="s">
+        <v>63</v>
       </c>
       <c r="M13">
-        <v>508.88592699999998</v>
-      </c>
-      <c r="S13" t="s">
-        <v>39</v>
-      </c>
-      <c r="T13">
-        <v>592.979827</v>
-      </c>
-      <c r="U13">
-        <v>592.979827</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+        <v>452.98247099999998</v>
+      </c>
+      <c r="N13">
+        <v>452.98247099999998</v>
+      </c>
+      <c r="U13" t="s">
+        <v>18</v>
+      </c>
+      <c r="V13">
+        <v>840.63085100000001</v>
+      </c>
+      <c r="W13">
+        <v>840.63085100000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>110</v>
       </c>
@@ -1276,30 +1325,30 @@
       <c r="D14">
         <v>570.719111</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K14" t="s">
-        <v>87</v>
-      </c>
-      <c r="L14">
-        <v>516.97184900000002</v>
+      <c r="E14" s="1">
+        <f>D14+0.00054858</f>
+        <v>570.71965957999998</v>
+      </c>
+      <c r="L14" t="s">
+        <v>64</v>
       </c>
       <c r="M14">
-        <v>516.97184900000002</v>
-      </c>
-      <c r="S14" t="s">
-        <v>11</v>
-      </c>
-      <c r="T14">
-        <v>598.90955499999995</v>
-      </c>
-      <c r="U14">
-        <v>598.90955499999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+        <v>488.94054899999998</v>
+      </c>
+      <c r="N14">
+        <v>488.94054899999998</v>
+      </c>
+      <c r="U14" t="s">
+        <v>19</v>
+      </c>
+      <c r="V14">
+        <v>874.59187899999995</v>
+      </c>
+      <c r="W14">
+        <v>874.59187899999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>111</v>
       </c>
@@ -1309,30 +1358,37 @@
       <c r="D15">
         <v>376.974493</v>
       </c>
+      <c r="E15" s="1">
+        <f>D15+0.00054858</f>
+        <v>376.97504157999998</v>
+      </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K15" t="s">
+        <v>376.97381999999999</v>
+      </c>
+      <c r="G15">
+        <f>(F15-E15)/E15*10^6</f>
+        <v>-3.2404797804974432</v>
+      </c>
+      <c r="L15" t="s">
         <v>65</v>
-      </c>
-      <c r="L15">
-        <v>522.90157699999997</v>
       </c>
       <c r="M15">
         <v>522.90157699999997</v>
       </c>
-      <c r="S15" t="s">
-        <v>25</v>
-      </c>
-      <c r="T15">
-        <v>612.92520500000001</v>
-      </c>
-      <c r="U15">
-        <v>612.92520500000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="N15">
+        <v>522.90157699999997</v>
+      </c>
+      <c r="U15" t="s">
+        <v>20</v>
+      </c>
+      <c r="V15">
+        <v>908.552907</v>
+      </c>
+      <c r="W15">
+        <v>908.552907</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>112</v>
       </c>
@@ -1342,30 +1398,30 @@
       <c r="D16">
         <v>410.93552099999999</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K16" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16">
-        <v>536.91722700000003</v>
+      <c r="E16" s="1">
+        <f>D16+0.00054858</f>
+        <v>410.93606957999998</v>
+      </c>
+      <c r="L16" t="s">
+        <v>66</v>
       </c>
       <c r="M16">
-        <v>536.91722700000003</v>
-      </c>
-      <c r="S16" t="s">
-        <v>40</v>
-      </c>
-      <c r="T16">
-        <v>626.94085500000006</v>
-      </c>
-      <c r="U16">
-        <v>626.94085500000006</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
+        <v>556.86260500000003</v>
+      </c>
+      <c r="N16">
+        <v>556.86260500000003</v>
+      </c>
+      <c r="U16" t="s">
+        <v>21</v>
+      </c>
+      <c r="V16">
+        <v>475.08404300000001</v>
+      </c>
+      <c r="W16">
+        <v>475.08404300000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>113</v>
       </c>
@@ -1375,30 +1431,30 @@
       <c r="D17">
         <v>446.89359899999999</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K17" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17">
-        <v>542.84695499999998</v>
+      <c r="E17" s="1">
+        <f>D17+0.00054858</f>
+        <v>446.89414757999998</v>
+      </c>
+      <c r="L17" t="s">
+        <v>67</v>
       </c>
       <c r="M17">
-        <v>542.84695499999998</v>
-      </c>
-      <c r="S17" t="s">
-        <v>12</v>
-      </c>
-      <c r="T17">
-        <v>632.87058300000001</v>
-      </c>
-      <c r="U17">
-        <v>632.87058300000001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
+        <v>590.82363299999997</v>
+      </c>
+      <c r="N17">
+        <v>590.82363299999997</v>
+      </c>
+      <c r="U17" t="s">
+        <v>22</v>
+      </c>
+      <c r="V17">
+        <v>509.04507100000001</v>
+      </c>
+      <c r="W17">
+        <v>509.04507100000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>114</v>
       </c>
@@ -1408,30 +1464,30 @@
       <c r="D18">
         <v>480.85462699999999</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K18" t="s">
-        <v>88</v>
-      </c>
-      <c r="L18">
-        <v>550.93287699999996</v>
+      <c r="E18" s="1">
+        <f>D18+0.00054858</f>
+        <v>480.85517557999998</v>
+      </c>
+      <c r="L18" t="s">
+        <v>68</v>
       </c>
       <c r="M18">
-        <v>550.93287699999996</v>
-      </c>
-      <c r="S18" t="s">
-        <v>26</v>
-      </c>
-      <c r="T18">
-        <v>646.88623299999995</v>
-      </c>
-      <c r="U18">
-        <v>646.88623299999995</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
+        <v>626.78171099999997</v>
+      </c>
+      <c r="N18">
+        <v>626.78171099999997</v>
+      </c>
+      <c r="U18" t="s">
+        <v>23</v>
+      </c>
+      <c r="V18">
+        <v>545.00314900000001</v>
+      </c>
+      <c r="W18">
+        <v>545.00314900000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>115</v>
       </c>
@@ -1441,30 +1497,30 @@
       <c r="D19">
         <v>514.81565499999999</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K19" t="s">
-        <v>66</v>
-      </c>
-      <c r="L19">
-        <v>556.86260500000003</v>
+      <c r="E19" s="1">
+        <f>D19+0.00054858</f>
+        <v>514.81620357999998</v>
+      </c>
+      <c r="L19" t="s">
+        <v>69</v>
       </c>
       <c r="M19">
-        <v>556.86260500000003</v>
-      </c>
-      <c r="S19" t="s">
-        <v>41</v>
-      </c>
-      <c r="T19">
-        <v>660.901883</v>
-      </c>
-      <c r="U19">
-        <v>660.901883</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
+        <v>660.74273900000003</v>
+      </c>
+      <c r="N19">
+        <v>660.74273900000003</v>
+      </c>
+      <c r="U19" t="s">
+        <v>24</v>
+      </c>
+      <c r="V19">
+        <v>578.96417699999995</v>
+      </c>
+      <c r="W19">
+        <v>578.96417699999995</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>116</v>
       </c>
@@ -1474,30 +1530,30 @@
       <c r="D20">
         <v>548.77668300000005</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K20" t="s">
-        <v>77</v>
-      </c>
-      <c r="L20">
-        <v>570.87825499999997</v>
+      <c r="E20" s="1">
+        <f>D20+0.00054858</f>
+        <v>548.77723158000003</v>
+      </c>
+      <c r="L20" t="s">
+        <v>70</v>
       </c>
       <c r="M20">
-        <v>570.87825499999997</v>
-      </c>
-      <c r="S20" t="s">
-        <v>13</v>
-      </c>
-      <c r="T20">
-        <v>668.82866100000001</v>
-      </c>
-      <c r="U20">
-        <v>668.82866100000001</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
+        <v>694.70376699999997</v>
+      </c>
+      <c r="N20">
+        <v>694.70376699999997</v>
+      </c>
+      <c r="U20" t="s">
+        <v>25</v>
+      </c>
+      <c r="V20">
+        <v>612.92520500000001</v>
+      </c>
+      <c r="W20">
+        <v>612.92520500000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>117</v>
       </c>
@@ -1507,30 +1563,30 @@
       <c r="D21">
         <v>584.73476100000005</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K21" t="s">
-        <v>57</v>
-      </c>
-      <c r="L21">
-        <v>576.80798300000004</v>
+      <c r="E21" s="1">
+        <f>D21+0.00054858</f>
+        <v>584.73530958000003</v>
+      </c>
+      <c r="L21" t="s">
+        <v>71</v>
       </c>
       <c r="M21">
-        <v>576.80798300000004</v>
-      </c>
-      <c r="S21" t="s">
-        <v>27</v>
-      </c>
-      <c r="T21">
-        <v>682.84431099999995</v>
-      </c>
-      <c r="U21">
-        <v>682.84431099999995</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
+        <v>728.66479500000003</v>
+      </c>
+      <c r="N21">
+        <v>728.66479500000003</v>
+      </c>
+      <c r="U21" t="s">
+        <v>26</v>
+      </c>
+      <c r="V21">
+        <v>646.88623299999995</v>
+      </c>
+      <c r="W21">
+        <v>646.88623299999995</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>118</v>
       </c>
@@ -1540,30 +1596,30 @@
       <c r="D22">
         <v>618.69578899999999</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K22" t="s">
-        <v>89</v>
-      </c>
-      <c r="L22">
-        <v>584.89390500000002</v>
+      <c r="E22" s="1">
+        <f>D22+0.00054858</f>
+        <v>618.69633757999998</v>
+      </c>
+      <c r="L22" t="s">
+        <v>72</v>
       </c>
       <c r="M22">
-        <v>584.89390500000002</v>
-      </c>
-      <c r="S22" t="s">
-        <v>42</v>
-      </c>
-      <c r="T22">
-        <v>696.859961</v>
-      </c>
-      <c r="U22">
-        <v>696.859961</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
+        <v>764.62287300000003</v>
+      </c>
+      <c r="N22">
+        <v>764.62287300000003</v>
+      </c>
+      <c r="U22" t="s">
+        <v>27</v>
+      </c>
+      <c r="V22">
+        <v>682.84431099999995</v>
+      </c>
+      <c r="W22">
+        <v>682.84431099999995</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>119</v>
       </c>
@@ -1573,30 +1629,37 @@
       <c r="D23">
         <v>390.99014299999999</v>
       </c>
+      <c r="E23" s="1">
+        <f>D23+0.00054858</f>
+        <v>390.99069157999998</v>
+      </c>
       <c r="F23">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K23" t="s">
-        <v>67</v>
-      </c>
-      <c r="L23">
-        <v>590.82363299999997</v>
+        <v>390.99023</v>
+      </c>
+      <c r="G23">
+        <f>(F23-E23)/E23*10^6</f>
+        <v>-1.1805396136492652</v>
+      </c>
+      <c r="L23" t="s">
+        <v>73</v>
       </c>
       <c r="M23">
-        <v>590.82363299999997</v>
-      </c>
-      <c r="S23" t="s">
-        <v>14</v>
-      </c>
-      <c r="T23">
-        <v>702.78968899999995</v>
-      </c>
-      <c r="U23">
-        <v>702.78968899999995</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
+        <v>433.03709300000003</v>
+      </c>
+      <c r="N23">
+        <v>433.03709300000003</v>
+      </c>
+      <c r="U23" t="s">
+        <v>28</v>
+      </c>
+      <c r="V23">
+        <v>716.805339</v>
+      </c>
+      <c r="W23">
+        <v>716.805339</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>120</v>
       </c>
@@ -1606,30 +1669,30 @@
       <c r="D24">
         <v>424.95117099999999</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K24" t="s">
-        <v>78</v>
-      </c>
-      <c r="L24">
-        <v>604.83928300000002</v>
+      <c r="E24" s="1">
+        <f>D24+0.00054858</f>
+        <v>424.95171957999997</v>
+      </c>
+      <c r="L24" t="s">
+        <v>74</v>
       </c>
       <c r="M24">
-        <v>604.83928300000002</v>
-      </c>
-      <c r="S24" t="s">
-        <v>28</v>
-      </c>
-      <c r="T24">
-        <v>716.805339</v>
-      </c>
-      <c r="U24">
-        <v>716.805339</v>
-      </c>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
+        <v>466.99812100000003</v>
+      </c>
+      <c r="N24">
+        <v>466.99812100000003</v>
+      </c>
+      <c r="U24" t="s">
+        <v>29</v>
+      </c>
+      <c r="V24">
+        <v>750.76636699999995</v>
+      </c>
+      <c r="W24">
+        <v>750.76636699999995</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>121</v>
       </c>
@@ -1639,30 +1702,30 @@
       <c r="D25">
         <v>460.90924899999999</v>
       </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K25" t="s">
-        <v>58</v>
-      </c>
-      <c r="L25">
-        <v>612.76606100000004</v>
+      <c r="E25" s="1">
+        <f>D25+0.00054858</f>
+        <v>460.90979757999997</v>
+      </c>
+      <c r="L25" t="s">
+        <v>75</v>
       </c>
       <c r="M25">
-        <v>612.76606100000004</v>
-      </c>
-      <c r="S25" t="s">
-        <v>43</v>
-      </c>
-      <c r="T25">
-        <v>730.82098900000005</v>
-      </c>
-      <c r="U25">
-        <v>730.82098900000005</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
+        <v>502.95619900000003</v>
+      </c>
+      <c r="N25">
+        <v>502.95619900000003</v>
+      </c>
+      <c r="U25" t="s">
+        <v>30</v>
+      </c>
+      <c r="V25">
+        <v>784.727395</v>
+      </c>
+      <c r="W25">
+        <v>784.727395</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>122</v>
       </c>
@@ -1672,30 +1735,30 @@
       <c r="D26">
         <v>494.87027699999999</v>
       </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K26" t="s">
-        <v>90</v>
-      </c>
-      <c r="L26">
-        <v>618.85493299999996</v>
+      <c r="E26" s="1">
+        <f>D26+0.00054858</f>
+        <v>494.87082557999997</v>
+      </c>
+      <c r="L26" t="s">
+        <v>76</v>
       </c>
       <c r="M26">
-        <v>618.85493299999996</v>
-      </c>
-      <c r="S26" t="s">
-        <v>15</v>
-      </c>
-      <c r="T26">
-        <v>736.75071700000001</v>
-      </c>
-      <c r="U26">
-        <v>736.75071700000001</v>
-      </c>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
+        <v>536.91722700000003</v>
+      </c>
+      <c r="N26">
+        <v>536.91722700000003</v>
+      </c>
+      <c r="U26" t="s">
+        <v>31</v>
+      </c>
+      <c r="V26">
+        <v>820.685473</v>
+      </c>
+      <c r="W26">
+        <v>820.685473</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>123</v>
       </c>
@@ -1705,30 +1768,30 @@
       <c r="D27">
         <v>528.83130500000004</v>
       </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K27" t="s">
-        <v>68</v>
-      </c>
-      <c r="L27">
-        <v>626.78171099999997</v>
+      <c r="E27" s="1">
+        <f>D27+0.00054858</f>
+        <v>528.83185358000003</v>
+      </c>
+      <c r="L27" t="s">
+        <v>77</v>
       </c>
       <c r="M27">
-        <v>626.78171099999997</v>
-      </c>
-      <c r="S27" t="s">
-        <v>29</v>
-      </c>
-      <c r="T27">
-        <v>750.76636699999995</v>
-      </c>
-      <c r="U27">
-        <v>750.76636699999995</v>
-      </c>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
+        <v>570.87825499999997</v>
+      </c>
+      <c r="N27">
+        <v>570.87825499999997</v>
+      </c>
+      <c r="U27" t="s">
+        <v>32</v>
+      </c>
+      <c r="V27">
+        <v>854.64650099999994</v>
+      </c>
+      <c r="W27">
+        <v>854.64650099999994</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>124</v>
       </c>
@@ -1738,30 +1801,30 @@
       <c r="D28">
         <v>562.79233299999999</v>
       </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K28" t="s">
-        <v>79</v>
-      </c>
-      <c r="L28">
-        <v>640.79736100000002</v>
+      <c r="E28" s="1">
+        <f>D28+0.00054858</f>
+        <v>562.79288157999997</v>
+      </c>
+      <c r="L28" t="s">
+        <v>78</v>
       </c>
       <c r="M28">
-        <v>640.79736100000002</v>
-      </c>
-      <c r="S28" t="s">
-        <v>44</v>
-      </c>
-      <c r="T28">
-        <v>764.782017</v>
-      </c>
-      <c r="U28">
-        <v>764.782017</v>
-      </c>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
+        <v>604.83928300000002</v>
+      </c>
+      <c r="N28">
+        <v>604.83928300000002</v>
+      </c>
+      <c r="U28" t="s">
+        <v>33</v>
+      </c>
+      <c r="V28">
+        <v>888.607529</v>
+      </c>
+      <c r="W28">
+        <v>888.607529</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>125</v>
       </c>
@@ -1771,30 +1834,30 @@
       <c r="D29">
         <v>598.75041099999999</v>
       </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K29" t="s">
-        <v>59</v>
-      </c>
-      <c r="L29">
-        <v>646.72708899999998</v>
+      <c r="E29" s="1">
+        <f>D29+0.00054858</f>
+        <v>598.75095957999997</v>
+      </c>
+      <c r="L29" t="s">
+        <v>79</v>
       </c>
       <c r="M29">
-        <v>646.72708899999998</v>
-      </c>
-      <c r="S29" t="s">
-        <v>16</v>
-      </c>
-      <c r="T29">
-        <v>770.71174499999995</v>
-      </c>
-      <c r="U29">
-        <v>770.71174499999995</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
+        <v>640.79736100000002</v>
+      </c>
+      <c r="N29">
+        <v>640.79736100000002</v>
+      </c>
+      <c r="U29" t="s">
+        <v>34</v>
+      </c>
+      <c r="V29">
+        <v>922.56855700000006</v>
+      </c>
+      <c r="W29">
+        <v>922.56855700000006</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>126</v>
       </c>
@@ -1804,30 +1867,30 @@
       <c r="D30">
         <v>632.71143900000004</v>
       </c>
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K30" t="s">
-        <v>91</v>
-      </c>
-      <c r="L30">
-        <v>654.81301099999996</v>
+      <c r="E30" s="1">
+        <f>D30+0.00054858</f>
+        <v>632.71198758000003</v>
+      </c>
+      <c r="L30" t="s">
+        <v>80</v>
       </c>
       <c r="M30">
-        <v>654.81301099999996</v>
-      </c>
-      <c r="S30" t="s">
-        <v>30</v>
-      </c>
-      <c r="T30">
-        <v>784.727395</v>
-      </c>
-      <c r="U30">
-        <v>784.727395</v>
-      </c>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
+        <v>674.75838899999997</v>
+      </c>
+      <c r="N30">
+        <v>674.75838899999997</v>
+      </c>
+      <c r="U30" t="s">
+        <v>35</v>
+      </c>
+      <c r="V30">
+        <v>958.52663500000006</v>
+      </c>
+      <c r="W30">
+        <v>958.52663500000006</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>127</v>
       </c>
@@ -1837,344 +1900,2035 @@
       <c r="D31">
         <v>666.67246699999998</v>
       </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>-1000000</v>
-      </c>
-      <c r="K31" t="s">
-        <v>69</v>
-      </c>
-      <c r="L31">
-        <v>660.74273900000003</v>
+      <c r="E31" s="1">
+        <f>D31+0.00054858</f>
+        <v>666.67301557999997</v>
+      </c>
+      <c r="L31" t="s">
+        <v>81</v>
       </c>
       <c r="M31">
-        <v>660.74273900000003</v>
-      </c>
-      <c r="S31" t="s">
+        <v>708.71941700000002</v>
+      </c>
+      <c r="N31">
+        <v>708.71941700000002</v>
+      </c>
+      <c r="U31" t="s">
+        <v>36</v>
+      </c>
+      <c r="V31">
+        <v>489.099693</v>
+      </c>
+      <c r="W31">
+        <v>489.099693</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>82</v>
+      </c>
+      <c r="M32">
+        <v>742.68044499999996</v>
+      </c>
+      <c r="N32">
+        <v>742.68044499999996</v>
+      </c>
+      <c r="U32" t="s">
+        <v>37</v>
+      </c>
+      <c r="V32">
+        <v>523.06072099999994</v>
+      </c>
+      <c r="W32">
+        <v>523.06072099999994</v>
+      </c>
+    </row>
+    <row r="33" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>83</v>
+      </c>
+      <c r="M33">
+        <v>778.63852299999996</v>
+      </c>
+      <c r="N33">
+        <v>778.63852299999996</v>
+      </c>
+      <c r="U33" t="s">
+        <v>38</v>
+      </c>
+      <c r="V33">
+        <v>559.01879899999994</v>
+      </c>
+      <c r="W33">
+        <v>559.01879899999994</v>
+      </c>
+    </row>
+    <row r="34" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L34" t="s">
+        <v>84</v>
+      </c>
+      <c r="M34">
+        <v>812.59955100000002</v>
+      </c>
+      <c r="N34">
+        <v>812.59955100000002</v>
+      </c>
+      <c r="U34" t="s">
+        <v>39</v>
+      </c>
+      <c r="V34">
+        <v>592.979827</v>
+      </c>
+      <c r="W34">
+        <v>592.979827</v>
+      </c>
+    </row>
+    <row r="35" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L35" t="s">
+        <v>85</v>
+      </c>
+      <c r="M35">
+        <v>447.05274300000002</v>
+      </c>
+      <c r="N35">
+        <v>447.05274300000002</v>
+      </c>
+      <c r="U35" t="s">
+        <v>40</v>
+      </c>
+      <c r="V35">
+        <v>626.94085500000006</v>
+      </c>
+      <c r="W35">
+        <v>626.94085500000006</v>
+      </c>
+    </row>
+    <row r="36" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L36" t="s">
+        <v>86</v>
+      </c>
+      <c r="M36">
+        <v>481.01377100000002</v>
+      </c>
+      <c r="N36">
+        <v>481.01377100000002</v>
+      </c>
+      <c r="U36" t="s">
+        <v>41</v>
+      </c>
+      <c r="V36">
+        <v>660.901883</v>
+      </c>
+      <c r="W36">
+        <v>660.901883</v>
+      </c>
+    </row>
+    <row r="37" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L37" t="s">
+        <v>87</v>
+      </c>
+      <c r="M37">
+        <v>516.97184900000002</v>
+      </c>
+      <c r="N37">
+        <v>516.97184900000002</v>
+      </c>
+      <c r="U37" t="s">
+        <v>42</v>
+      </c>
+      <c r="V37">
+        <v>696.859961</v>
+      </c>
+      <c r="W37">
+        <v>696.859961</v>
+      </c>
+    </row>
+    <row r="38" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L38" t="s">
+        <v>88</v>
+      </c>
+      <c r="M38">
+        <v>550.93287699999996</v>
+      </c>
+      <c r="N38">
+        <v>550.93287699999996</v>
+      </c>
+      <c r="U38" t="s">
+        <v>43</v>
+      </c>
+      <c r="V38">
+        <v>730.82098900000005</v>
+      </c>
+      <c r="W38">
+        <v>730.82098900000005</v>
+      </c>
+    </row>
+    <row r="39" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L39" t="s">
+        <v>89</v>
+      </c>
+      <c r="M39">
+        <v>584.89390500000002</v>
+      </c>
+      <c r="N39">
+        <v>584.89390500000002</v>
+      </c>
+      <c r="U39" t="s">
+        <v>44</v>
+      </c>
+      <c r="V39">
+        <v>764.782017</v>
+      </c>
+      <c r="W39">
+        <v>764.782017</v>
+      </c>
+    </row>
+    <row r="40" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L40" t="s">
+        <v>90</v>
+      </c>
+      <c r="M40">
+        <v>618.85493299999996</v>
+      </c>
+      <c r="N40">
+        <v>618.85493299999996</v>
+      </c>
+      <c r="U40" t="s">
         <v>45</v>
       </c>
-      <c r="T31">
+      <c r="V40">
         <v>798.74304500000005</v>
       </c>
-      <c r="U31">
+      <c r="W40">
         <v>798.74304500000005</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="K32" t="s">
-        <v>80</v>
-      </c>
-      <c r="L32">
-        <v>674.75838899999997</v>
-      </c>
-      <c r="M32">
-        <v>674.75838899999997</v>
-      </c>
-      <c r="S32" t="s">
-        <v>17</v>
-      </c>
-      <c r="T32">
-        <v>806.66982299999995</v>
-      </c>
-      <c r="U32">
-        <v>806.66982299999995</v>
-      </c>
-    </row>
-    <row r="33" spans="11:21" x14ac:dyDescent="0.35">
-      <c r="K33" t="s">
-        <v>60</v>
-      </c>
-      <c r="L33">
-        <v>680.68811700000003</v>
-      </c>
-      <c r="M33">
-        <v>680.68811700000003</v>
-      </c>
-      <c r="S33" t="s">
-        <v>31</v>
-      </c>
-      <c r="T33">
-        <v>820.685473</v>
-      </c>
-      <c r="U33">
-        <v>820.685473</v>
-      </c>
-    </row>
-    <row r="34" spans="11:21" x14ac:dyDescent="0.35">
-      <c r="K34" t="s">
+    <row r="41" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L41" t="s">
+        <v>91</v>
+      </c>
+      <c r="M41">
+        <v>654.81301099999996</v>
+      </c>
+      <c r="N41">
+        <v>654.81301099999996</v>
+      </c>
+      <c r="U41" t="s">
+        <v>46</v>
+      </c>
+      <c r="V41">
+        <v>834.70112300000005</v>
+      </c>
+      <c r="W41">
+        <v>834.70112300000005</v>
+      </c>
+    </row>
+    <row r="42" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L42" t="s">
         <v>92</v>
       </c>
-      <c r="L34">
+      <c r="M42">
         <v>688.77403900000002</v>
       </c>
-      <c r="M34">
+      <c r="N42">
         <v>688.77403900000002</v>
       </c>
-      <c r="S34" t="s">
-        <v>46</v>
-      </c>
-      <c r="T34">
-        <v>834.70112300000005</v>
-      </c>
-      <c r="U34">
-        <v>834.70112300000005</v>
-      </c>
-    </row>
-    <row r="35" spans="11:21" x14ac:dyDescent="0.35">
-      <c r="K35" t="s">
-        <v>70</v>
-      </c>
-      <c r="L35">
-        <v>694.70376699999997</v>
-      </c>
-      <c r="M35">
-        <v>694.70376699999997</v>
-      </c>
-      <c r="S35" t="s">
-        <v>18</v>
-      </c>
-      <c r="T35">
-        <v>840.63085100000001</v>
-      </c>
-      <c r="U35">
-        <v>840.63085100000001</v>
-      </c>
-    </row>
-    <row r="36" spans="11:21" x14ac:dyDescent="0.35">
-      <c r="K36" t="s">
-        <v>81</v>
-      </c>
-      <c r="L36">
-        <v>708.71941700000002</v>
-      </c>
-      <c r="M36">
-        <v>708.71941700000002</v>
-      </c>
-      <c r="S36" t="s">
-        <v>32</v>
-      </c>
-      <c r="T36">
-        <v>854.64650099999994</v>
-      </c>
-      <c r="U36">
-        <v>854.64650099999994</v>
-      </c>
-    </row>
-    <row r="37" spans="11:21" x14ac:dyDescent="0.35">
-      <c r="K37" t="s">
-        <v>61</v>
-      </c>
-      <c r="L37">
-        <v>714.64914499999998</v>
-      </c>
-      <c r="M37">
-        <v>714.64914499999998</v>
-      </c>
-      <c r="S37" t="s">
+      <c r="U42" t="s">
         <v>47</v>
       </c>
-      <c r="T37">
+      <c r="V42">
         <v>868.66215099999999</v>
       </c>
-      <c r="U37">
+      <c r="W42">
         <v>868.66215099999999</v>
       </c>
     </row>
-    <row r="38" spans="11:21" x14ac:dyDescent="0.35">
-      <c r="K38" t="s">
+    <row r="43" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L43" t="s">
         <v>93</v>
       </c>
-      <c r="L38">
+      <c r="M43">
         <v>722.73506699999996</v>
       </c>
-      <c r="M38">
+      <c r="N43">
         <v>722.73506699999996</v>
       </c>
-      <c r="S38" t="s">
-        <v>19</v>
-      </c>
-      <c r="T38">
-        <v>874.59187899999995</v>
-      </c>
-      <c r="U38">
-        <v>874.59187899999995</v>
-      </c>
-    </row>
-    <row r="39" spans="11:21" x14ac:dyDescent="0.35">
-      <c r="K39" t="s">
-        <v>71</v>
-      </c>
-      <c r="L39">
-        <v>728.66479500000003</v>
-      </c>
-      <c r="M39">
-        <v>728.66479500000003</v>
-      </c>
-      <c r="S39" t="s">
-        <v>33</v>
-      </c>
-      <c r="T39">
-        <v>888.607529</v>
-      </c>
-      <c r="U39">
-        <v>888.607529</v>
-      </c>
-    </row>
-    <row r="40" spans="11:21" x14ac:dyDescent="0.35">
-      <c r="K40" t="s">
-        <v>82</v>
-      </c>
-      <c r="L40">
-        <v>742.68044499999996</v>
-      </c>
-      <c r="M40">
-        <v>742.68044499999996</v>
-      </c>
-      <c r="S40" t="s">
+      <c r="U43" t="s">
         <v>48</v>
       </c>
-      <c r="T40">
+      <c r="V43">
         <v>902.62317900000005</v>
       </c>
-      <c r="U40">
+      <c r="W43">
         <v>902.62317900000005</v>
       </c>
     </row>
-    <row r="41" spans="11:21" x14ac:dyDescent="0.35">
-      <c r="K41" t="s">
+    <row r="44" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L44" t="s">
         <v>94</v>
       </c>
-      <c r="L41">
+      <c r="M44">
         <v>756.69609500000001</v>
       </c>
-      <c r="M41">
+      <c r="N44">
         <v>756.69609500000001</v>
       </c>
-      <c r="S41" t="s">
-        <v>20</v>
-      </c>
-      <c r="T41">
-        <v>908.552907</v>
-      </c>
-      <c r="U41">
-        <v>908.552907</v>
-      </c>
-    </row>
-    <row r="42" spans="11:21" x14ac:dyDescent="0.35">
-      <c r="K42" t="s">
-        <v>72</v>
-      </c>
-      <c r="L42">
-        <v>764.62287300000003</v>
-      </c>
-      <c r="M42">
-        <v>764.62287300000003</v>
-      </c>
-      <c r="S42" t="s">
-        <v>34</v>
-      </c>
-      <c r="T42">
-        <v>922.56855700000006</v>
-      </c>
-      <c r="U42">
-        <v>922.56855700000006</v>
-      </c>
-    </row>
-    <row r="43" spans="11:21" x14ac:dyDescent="0.35">
-      <c r="K43" t="s">
-        <v>83</v>
-      </c>
-      <c r="L43">
-        <v>778.63852299999996</v>
-      </c>
-      <c r="M43">
-        <v>778.63852299999996</v>
-      </c>
-      <c r="S43" t="s">
+      <c r="U44" t="s">
         <v>49</v>
       </c>
-      <c r="T43">
+      <c r="V44">
         <v>936.58420699999999</v>
       </c>
-      <c r="U43">
+      <c r="W44">
         <v>936.58420699999999</v>
       </c>
     </row>
-    <row r="44" spans="11:21" x14ac:dyDescent="0.35">
-      <c r="K44" t="s">
+    <row r="45" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L45" t="s">
         <v>95</v>
       </c>
-      <c r="L44">
+      <c r="M45">
         <v>792.65417300000001</v>
       </c>
-      <c r="M44">
+      <c r="N45">
         <v>792.65417300000001</v>
       </c>
-      <c r="S44" t="s">
-        <v>35</v>
-      </c>
-      <c r="T44">
-        <v>958.52663500000006</v>
-      </c>
-      <c r="U44">
-        <v>958.52663500000006</v>
-      </c>
-    </row>
-    <row r="45" spans="11:21" x14ac:dyDescent="0.35">
-      <c r="K45" t="s">
-        <v>84</v>
-      </c>
-      <c r="L45">
-        <v>812.59955100000002</v>
-      </c>
-      <c r="M45">
-        <v>812.59955100000002</v>
-      </c>
-      <c r="S45" t="s">
+      <c r="U45" t="s">
         <v>50</v>
       </c>
-      <c r="T45">
+      <c r="V45">
         <v>972.54228499999999</v>
       </c>
-      <c r="U45">
+      <c r="W45">
         <v>972.54228499999999</v>
       </c>
     </row>
-    <row r="46" spans="11:21" x14ac:dyDescent="0.35">
-      <c r="K46" t="s">
+    <row r="46" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L46" t="s">
         <v>96</v>
-      </c>
-      <c r="L46">
-        <v>826.61520099999996</v>
       </c>
       <c r="M46">
         <v>826.61520099999996</v>
       </c>
-      <c r="S46" t="s">
+      <c r="N46">
+        <v>826.61520099999996</v>
+      </c>
+      <c r="U46" t="s">
         <v>51</v>
       </c>
-      <c r="T46">
+      <c r="V46">
         <v>1006.503313</v>
       </c>
-      <c r="U46">
+      <c r="W46">
         <v>1006.503313</v>
       </c>
     </row>
-    <row r="47" spans="11:21" x14ac:dyDescent="0.35">
-      <c r="K47" t="s">
+    <row r="47" spans="12:23" x14ac:dyDescent="0.25">
+      <c r="L47" t="s">
         <v>97</v>
-      </c>
-      <c r="L47">
-        <v>860.57622900000001</v>
       </c>
       <c r="M47">
         <v>860.57622900000001</v>
       </c>
+      <c r="N47">
+        <v>860.57622900000001</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S2:T49">
-    <sortCondition ref="T1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T2:AA60">
+    <sortCondition descending="1" ref="U1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EA8B02-EDED-461E-9BCD-BF411E686BBD}">
+  <dimension ref="A1:AC47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="22" width="9.28515625" customWidth="1"/>
+    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" t="s">
+        <v>129</v>
+      </c>
+      <c r="W1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2">
+        <v>348.94319300000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>348.94319300000001</v>
+      </c>
+      <c r="E2" s="4">
+        <f>D2+0.00054858</f>
+        <v>348.94374157999999</v>
+      </c>
+      <c r="F2">
+        <v>348.94339000000002</v>
+      </c>
+      <c r="G2">
+        <f>(F2-E2)/E2*10^6</f>
+        <v>-1.0075549668261179</v>
+      </c>
+      <c r="H2">
+        <v>348.94375000000002</v>
+      </c>
+      <c r="I2">
+        <f>(H2-E2)/E2*10^6</f>
+        <v>2.4129964304957608E-2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2">
+        <v>405.00579299999998</v>
+      </c>
+      <c r="P2">
+        <v>405.00579299999998</v>
+      </c>
+      <c r="W2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2">
+        <v>461.06839300000001</v>
+      </c>
+      <c r="Y2">
+        <v>461.06839300000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3">
+        <v>382.90422100000001</v>
+      </c>
+      <c r="D3">
+        <v>382.90422100000001</v>
+      </c>
+      <c r="E3" s="4">
+        <f>D3+0.00054858</f>
+        <v>382.90476957999999</v>
+      </c>
+      <c r="F3">
+        <v>382.90366</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G31" si="0">(F3-E3)/E3*10^6</f>
+        <v>-2.8977962358834106</v>
+      </c>
+      <c r="H3">
+        <v>382.90465999999998</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I31" si="1">(H3-E3)/E3*10^6</f>
+        <v>-0.28618081758180064</v>
+      </c>
+      <c r="N3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3">
+        <v>438.96682099999998</v>
+      </c>
+      <c r="P3">
+        <v>438.96682099999998</v>
+      </c>
+      <c r="W3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X3">
+        <v>495.02942100000001</v>
+      </c>
+      <c r="Y3">
+        <v>495.02942100000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>418.86229900000001</v>
+      </c>
+      <c r="D4">
+        <v>418.86229900000001</v>
+      </c>
+      <c r="E4" s="4">
+        <f>D4+0.00054858</f>
+        <v>418.86284757999999</v>
+      </c>
+      <c r="F4">
+        <v>418.86237</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>-1.1401822881976775</v>
+      </c>
+      <c r="H4">
+        <v>418.86259999999999</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>-0.5910765336133883</v>
+      </c>
+      <c r="N4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4">
+        <v>474.92489899999998</v>
+      </c>
+      <c r="P4">
+        <v>474.92489899999998</v>
+      </c>
+      <c r="W4" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4">
+        <v>530.98749899999996</v>
+      </c>
+      <c r="Y4">
+        <v>530.98749899999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5">
+        <v>452.82332700000001</v>
+      </c>
+      <c r="D5">
+        <v>452.82332700000001</v>
+      </c>
+      <c r="E5" s="4">
+        <f>D5+0.00054858</f>
+        <v>452.82387557999999</v>
+      </c>
+      <c r="F5">
+        <v>452.82285000000002</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>-2.2648540752446391</v>
+      </c>
+      <c r="H5">
+        <v>452.82299</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>-1.9556830983206084</v>
+      </c>
+      <c r="N5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5">
+        <v>508.88592699999998</v>
+      </c>
+      <c r="P5">
+        <v>508.88592699999998</v>
+      </c>
+      <c r="W5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X5">
+        <v>564.94852700000001</v>
+      </c>
+      <c r="Y5">
+        <v>564.94852700000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6">
+        <v>486.78435500000001</v>
+      </c>
+      <c r="D6">
+        <v>486.78435500000001</v>
+      </c>
+      <c r="E6" s="4">
+        <f>D6+0.00054858</f>
+        <v>486.78490357999999</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="N6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6">
+        <v>542.84695499999998</v>
+      </c>
+      <c r="P6">
+        <v>542.84695499999998</v>
+      </c>
+      <c r="W6" t="s">
+        <v>11</v>
+      </c>
+      <c r="X6">
+        <v>598.90955499999995</v>
+      </c>
+      <c r="Y6">
+        <v>598.90955499999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7">
+        <v>520.74538299999995</v>
+      </c>
+      <c r="D7">
+        <v>520.74538299999995</v>
+      </c>
+      <c r="E7" s="4">
+        <f>D7+0.00054858</f>
+        <v>520.74593157999993</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="N7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7">
+        <v>576.80798300000004</v>
+      </c>
+      <c r="P7">
+        <v>576.80798300000004</v>
+      </c>
+      <c r="W7" t="s">
+        <v>12</v>
+      </c>
+      <c r="X7">
+        <v>632.87058300000001</v>
+      </c>
+      <c r="Y7">
+        <v>632.87058300000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8">
+        <v>362.958843</v>
+      </c>
+      <c r="D8">
+        <v>362.958843</v>
+      </c>
+      <c r="E8" s="4">
+        <f>D8+0.00054858</f>
+        <v>362.95939157999999</v>
+      </c>
+      <c r="F8">
+        <v>362.95922999999999</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>-0.44517376804440939</v>
+      </c>
+      <c r="H8">
+        <v>362.95934999999997</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>-0.11455827009882999</v>
+      </c>
+      <c r="N8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8">
+        <v>612.76606100000004</v>
+      </c>
+      <c r="P8">
+        <v>612.76606100000004</v>
+      </c>
+      <c r="W8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X8">
+        <v>668.82866100000001</v>
+      </c>
+      <c r="Y8">
+        <v>668.82866100000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9">
+        <v>396.919871</v>
+      </c>
+      <c r="D9">
+        <v>396.919871</v>
+      </c>
+      <c r="E9" s="4">
+        <f>D9+0.00054858</f>
+        <v>396.92041957999999</v>
+      </c>
+      <c r="F9">
+        <v>396.91986000000003</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>-1.4098040119739297</v>
+      </c>
+      <c r="H9">
+        <v>396.92014</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>-0.70437293268738155</v>
+      </c>
+      <c r="N9" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9">
+        <v>646.72708899999998</v>
+      </c>
+      <c r="P9">
+        <v>646.72708899999998</v>
+      </c>
+      <c r="W9" t="s">
+        <v>14</v>
+      </c>
+      <c r="X9">
+        <v>702.78968899999995</v>
+      </c>
+      <c r="Y9">
+        <v>702.78968899999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10">
+        <v>432.877949</v>
+      </c>
+      <c r="D10">
+        <v>432.877949</v>
+      </c>
+      <c r="E10" s="4">
+        <f>D10+0.00054858</f>
+        <v>432.87849757999999</v>
+      </c>
+      <c r="F10">
+        <v>432.87799000000001</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>-1.172569214718397</v>
+      </c>
+      <c r="H10">
+        <v>432.87806499999999</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>-0.99931043563729294</v>
+      </c>
+      <c r="N10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10">
+        <v>680.68811700000003</v>
+      </c>
+      <c r="P10">
+        <v>680.68811700000003</v>
+      </c>
+      <c r="W10" t="s">
+        <v>15</v>
+      </c>
+      <c r="X10">
+        <v>736.75071700000001</v>
+      </c>
+      <c r="Y10">
+        <v>736.75071700000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11">
+        <v>466.838977</v>
+      </c>
+      <c r="D11">
+        <v>466.838977</v>
+      </c>
+      <c r="E11" s="4">
+        <f>D11+0.00054858</f>
+        <v>466.83952557999999</v>
+      </c>
+      <c r="F11">
+        <v>466.83929000000001</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>-0.50462736566229949</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="N11" t="s">
+        <v>61</v>
+      </c>
+      <c r="O11">
+        <v>714.64914499999998</v>
+      </c>
+      <c r="P11">
+        <v>714.64914499999998</v>
+      </c>
+      <c r="W11" t="s">
+        <v>16</v>
+      </c>
+      <c r="X11">
+        <v>770.71174499999995</v>
+      </c>
+      <c r="Y11">
+        <v>770.71174499999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12">
+        <v>500.800005</v>
+      </c>
+      <c r="D12">
+        <v>500.800005</v>
+      </c>
+      <c r="E12" s="4">
+        <f>D12+0.00054858</f>
+        <v>500.80055357999998</v>
+      </c>
+      <c r="F12">
+        <v>500.80005</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>-1.0055500066565226</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="N12" t="s">
+        <v>62</v>
+      </c>
+      <c r="O12">
+        <v>419.02144299999998</v>
+      </c>
+      <c r="P12">
+        <v>419.02144299999998</v>
+      </c>
+      <c r="W12" t="s">
+        <v>17</v>
+      </c>
+      <c r="X12">
+        <v>806.66982299999995</v>
+      </c>
+      <c r="Y12">
+        <v>806.66982299999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13">
+        <v>534.761033</v>
+      </c>
+      <c r="D13">
+        <v>534.761033</v>
+      </c>
+      <c r="E13" s="4">
+        <f>D13+0.00054858</f>
+        <v>534.76158157999998</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="N13" t="s">
+        <v>63</v>
+      </c>
+      <c r="O13">
+        <v>452.98247099999998</v>
+      </c>
+      <c r="P13">
+        <v>452.98247099999998</v>
+      </c>
+      <c r="W13" t="s">
+        <v>18</v>
+      </c>
+      <c r="X13">
+        <v>840.63085100000001</v>
+      </c>
+      <c r="Y13">
+        <v>840.63085100000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14">
+        <v>570.719111</v>
+      </c>
+      <c r="D14">
+        <v>570.719111</v>
+      </c>
+      <c r="E14" s="4">
+        <f>D14+0.00054858</f>
+        <v>570.71965957999998</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="N14" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14">
+        <v>488.94054899999998</v>
+      </c>
+      <c r="P14">
+        <v>488.94054899999998</v>
+      </c>
+      <c r="W14" t="s">
+        <v>19</v>
+      </c>
+      <c r="X14">
+        <v>874.59187899999995</v>
+      </c>
+      <c r="Y14">
+        <v>874.59187899999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15">
+        <v>376.974493</v>
+      </c>
+      <c r="D15">
+        <v>376.974493</v>
+      </c>
+      <c r="E15" s="4">
+        <f>D15+0.00054858</f>
+        <v>376.97504157999998</v>
+      </c>
+      <c r="F15">
+        <v>376.97464000000002</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>-1.0652694626045842</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="N15" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15">
+        <v>522.90157699999997</v>
+      </c>
+      <c r="P15">
+        <v>522.90157699999997</v>
+      </c>
+      <c r="W15" t="s">
+        <v>20</v>
+      </c>
+      <c r="X15">
+        <v>908.552907</v>
+      </c>
+      <c r="Y15">
+        <v>908.552907</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16">
+        <v>410.93552099999999</v>
+      </c>
+      <c r="D16">
+        <v>410.93552099999999</v>
+      </c>
+      <c r="E16" s="4">
+        <f>D16+0.00054858</f>
+        <v>410.93606957999998</v>
+      </c>
+      <c r="F16">
+        <v>410.93538999999998</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>-1.6537365549121024</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="N16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16">
+        <v>556.86260500000003</v>
+      </c>
+      <c r="P16">
+        <v>556.86260500000003</v>
+      </c>
+      <c r="W16" t="s">
+        <v>21</v>
+      </c>
+      <c r="X16">
+        <v>475.08404300000001</v>
+      </c>
+      <c r="Y16">
+        <v>475.08404300000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17">
+        <v>446.89359899999999</v>
+      </c>
+      <c r="D17">
+        <v>446.89359899999999</v>
+      </c>
+      <c r="E17" s="4">
+        <f>D17+0.00054858</f>
+        <v>446.89414757999998</v>
+      </c>
+      <c r="F17">
+        <v>446.89398</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>-0.37498812837245149</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="N17" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17">
+        <v>590.82363299999997</v>
+      </c>
+      <c r="P17">
+        <v>590.82363299999997</v>
+      </c>
+      <c r="W17" t="s">
+        <v>22</v>
+      </c>
+      <c r="X17">
+        <v>509.04507100000001</v>
+      </c>
+      <c r="Y17">
+        <v>509.04507100000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18">
+        <v>480.85462699999999</v>
+      </c>
+      <c r="D18">
+        <v>480.85462699999999</v>
+      </c>
+      <c r="E18" s="4">
+        <f>D18+0.00054858</f>
+        <v>480.85517557999998</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="N18" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18">
+        <v>626.78171099999997</v>
+      </c>
+      <c r="P18">
+        <v>626.78171099999997</v>
+      </c>
+      <c r="W18" t="s">
+        <v>23</v>
+      </c>
+      <c r="X18">
+        <v>545.00314900000001</v>
+      </c>
+      <c r="Y18">
+        <v>545.00314900000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19">
+        <v>514.81565499999999</v>
+      </c>
+      <c r="D19">
+        <v>514.81565499999999</v>
+      </c>
+      <c r="E19" s="4">
+        <f>D19+0.00054858</f>
+        <v>514.81620357999998</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="N19" t="s">
+        <v>69</v>
+      </c>
+      <c r="O19">
+        <v>660.74273900000003</v>
+      </c>
+      <c r="P19">
+        <v>660.74273900000003</v>
+      </c>
+      <c r="W19" t="s">
+        <v>24</v>
+      </c>
+      <c r="X19">
+        <v>578.96417699999995</v>
+      </c>
+      <c r="Y19">
+        <v>578.96417699999995</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20">
+        <v>548.77668300000005</v>
+      </c>
+      <c r="D20">
+        <v>548.77668300000005</v>
+      </c>
+      <c r="E20" s="4">
+        <f>D20+0.00054858</f>
+        <v>548.77723158000003</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="N20" t="s">
+        <v>70</v>
+      </c>
+      <c r="O20">
+        <v>694.70376699999997</v>
+      </c>
+      <c r="P20">
+        <v>694.70376699999997</v>
+      </c>
+      <c r="W20" t="s">
+        <v>25</v>
+      </c>
+      <c r="X20">
+        <v>612.92520500000001</v>
+      </c>
+      <c r="Y20">
+        <v>612.92520500000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21">
+        <v>584.73476100000005</v>
+      </c>
+      <c r="D21">
+        <v>584.73476100000005</v>
+      </c>
+      <c r="E21" s="4">
+        <f>D21+0.00054858</f>
+        <v>584.73530958000003</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="N21" t="s">
+        <v>71</v>
+      </c>
+      <c r="O21">
+        <v>728.66479500000003</v>
+      </c>
+      <c r="P21">
+        <v>728.66479500000003</v>
+      </c>
+      <c r="W21" t="s">
+        <v>26</v>
+      </c>
+      <c r="X21">
+        <v>646.88623299999995</v>
+      </c>
+      <c r="Y21">
+        <v>646.88623299999995</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22">
+        <v>618.69578899999999</v>
+      </c>
+      <c r="D22">
+        <v>618.69578899999999</v>
+      </c>
+      <c r="E22" s="4">
+        <f>D22+0.00054858</f>
+        <v>618.69633757999998</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="N22" t="s">
+        <v>72</v>
+      </c>
+      <c r="O22">
+        <v>764.62287300000003</v>
+      </c>
+      <c r="P22">
+        <v>764.62287300000003</v>
+      </c>
+      <c r="W22" t="s">
+        <v>27</v>
+      </c>
+      <c r="X22">
+        <v>682.84431099999995</v>
+      </c>
+      <c r="Y22">
+        <v>682.84431099999995</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23">
+        <v>390.99014299999999</v>
+      </c>
+      <c r="D23">
+        <v>390.99014299999999</v>
+      </c>
+      <c r="E23" s="4">
+        <f>D23+0.00054858</f>
+        <v>390.99069157999998</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="N23" t="s">
+        <v>73</v>
+      </c>
+      <c r="O23">
+        <v>433.03709300000003</v>
+      </c>
+      <c r="P23">
+        <v>433.03709300000003</v>
+      </c>
+      <c r="W23" t="s">
+        <v>28</v>
+      </c>
+      <c r="X23">
+        <v>716.805339</v>
+      </c>
+      <c r="Y23">
+        <v>716.805339</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24">
+        <v>424.95117099999999</v>
+      </c>
+      <c r="D24">
+        <v>424.95117099999999</v>
+      </c>
+      <c r="E24" s="4">
+        <f>D24+0.00054858</f>
+        <v>424.95171957999997</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="N24" t="s">
+        <v>74</v>
+      </c>
+      <c r="O24">
+        <v>466.99812100000003</v>
+      </c>
+      <c r="P24">
+        <v>466.99812100000003</v>
+      </c>
+      <c r="W24" t="s">
+        <v>29</v>
+      </c>
+      <c r="X24">
+        <v>750.76636699999995</v>
+      </c>
+      <c r="Y24">
+        <v>750.76636699999995</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25">
+        <v>460.90924899999999</v>
+      </c>
+      <c r="D25">
+        <v>460.90924899999999</v>
+      </c>
+      <c r="E25" s="4">
+        <f>D25+0.00054858</f>
+        <v>460.90979757999997</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="N25" t="s">
+        <v>75</v>
+      </c>
+      <c r="O25">
+        <v>502.95619900000003</v>
+      </c>
+      <c r="P25">
+        <v>502.95619900000003</v>
+      </c>
+      <c r="W25" t="s">
+        <v>30</v>
+      </c>
+      <c r="X25">
+        <v>784.727395</v>
+      </c>
+      <c r="Y25">
+        <v>784.727395</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26">
+        <v>494.87027699999999</v>
+      </c>
+      <c r="D26">
+        <v>494.87027699999999</v>
+      </c>
+      <c r="E26" s="4">
+        <f>D26+0.00054858</f>
+        <v>494.87082557999997</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="N26" t="s">
+        <v>76</v>
+      </c>
+      <c r="O26">
+        <v>536.91722700000003</v>
+      </c>
+      <c r="P26">
+        <v>536.91722700000003</v>
+      </c>
+      <c r="W26" t="s">
+        <v>31</v>
+      </c>
+      <c r="X26">
+        <v>820.685473</v>
+      </c>
+      <c r="Y26">
+        <v>820.685473</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27">
+        <v>528.83130500000004</v>
+      </c>
+      <c r="D27">
+        <v>528.83130500000004</v>
+      </c>
+      <c r="E27" s="4">
+        <f>D27+0.00054858</f>
+        <v>528.83185358000003</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="N27" t="s">
+        <v>77</v>
+      </c>
+      <c r="O27">
+        <v>570.87825499999997</v>
+      </c>
+      <c r="P27">
+        <v>570.87825499999997</v>
+      </c>
+      <c r="W27" t="s">
+        <v>32</v>
+      </c>
+      <c r="X27">
+        <v>854.64650099999994</v>
+      </c>
+      <c r="Y27">
+        <v>854.64650099999994</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28">
+        <v>562.79233299999999</v>
+      </c>
+      <c r="D28">
+        <v>562.79233299999999</v>
+      </c>
+      <c r="E28" s="4">
+        <f>D28+0.00054858</f>
+        <v>562.79288157999997</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="N28" t="s">
+        <v>78</v>
+      </c>
+      <c r="O28">
+        <v>604.83928300000002</v>
+      </c>
+      <c r="P28">
+        <v>604.83928300000002</v>
+      </c>
+      <c r="W28" t="s">
+        <v>33</v>
+      </c>
+      <c r="X28">
+        <v>888.607529</v>
+      </c>
+      <c r="Y28">
+        <v>888.607529</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29">
+        <v>598.75041099999999</v>
+      </c>
+      <c r="D29">
+        <v>598.75041099999999</v>
+      </c>
+      <c r="E29" s="4">
+        <f>D29+0.00054858</f>
+        <v>598.75095957999997</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="N29" t="s">
+        <v>79</v>
+      </c>
+      <c r="O29">
+        <v>640.79736100000002</v>
+      </c>
+      <c r="P29">
+        <v>640.79736100000002</v>
+      </c>
+      <c r="W29" t="s">
+        <v>34</v>
+      </c>
+      <c r="X29">
+        <v>922.56855700000006</v>
+      </c>
+      <c r="Y29">
+        <v>922.56855700000006</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30">
+        <v>632.71143900000004</v>
+      </c>
+      <c r="D30">
+        <v>632.71143900000004</v>
+      </c>
+      <c r="E30" s="4">
+        <f>D30+0.00054858</f>
+        <v>632.71198758000003</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="N30" t="s">
+        <v>80</v>
+      </c>
+      <c r="O30">
+        <v>674.75838899999997</v>
+      </c>
+      <c r="P30">
+        <v>674.75838899999997</v>
+      </c>
+      <c r="W30" t="s">
+        <v>35</v>
+      </c>
+      <c r="X30">
+        <v>958.52663500000006</v>
+      </c>
+      <c r="Y30">
+        <v>958.52663500000006</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31">
+        <v>666.67246699999998</v>
+      </c>
+      <c r="D31">
+        <v>666.67246699999998</v>
+      </c>
+      <c r="E31" s="4">
+        <f>D31+0.00054858</f>
+        <v>666.67301557999997</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>-1000000</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>-1000000</v>
+      </c>
+      <c r="N31" t="s">
+        <v>81</v>
+      </c>
+      <c r="O31">
+        <v>708.71941700000002</v>
+      </c>
+      <c r="P31">
+        <v>708.71941700000002</v>
+      </c>
+      <c r="W31" t="s">
+        <v>36</v>
+      </c>
+      <c r="X31">
+        <v>489.099693</v>
+      </c>
+      <c r="Y31">
+        <v>489.099693</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="N32" t="s">
+        <v>82</v>
+      </c>
+      <c r="O32">
+        <v>742.68044499999996</v>
+      </c>
+      <c r="P32">
+        <v>742.68044499999996</v>
+      </c>
+      <c r="W32" t="s">
+        <v>37</v>
+      </c>
+      <c r="X32">
+        <v>523.06072099999994</v>
+      </c>
+      <c r="Y32">
+        <v>523.06072099999994</v>
+      </c>
+    </row>
+    <row r="33" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>83</v>
+      </c>
+      <c r="O33">
+        <v>778.63852299999996</v>
+      </c>
+      <c r="P33">
+        <v>778.63852299999996</v>
+      </c>
+      <c r="W33" t="s">
+        <v>38</v>
+      </c>
+      <c r="X33">
+        <v>559.01879899999994</v>
+      </c>
+      <c r="Y33">
+        <v>559.01879899999994</v>
+      </c>
+    </row>
+    <row r="34" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N34" t="s">
+        <v>84</v>
+      </c>
+      <c r="O34">
+        <v>812.59955100000002</v>
+      </c>
+      <c r="P34">
+        <v>812.59955100000002</v>
+      </c>
+      <c r="W34" t="s">
+        <v>39</v>
+      </c>
+      <c r="X34">
+        <v>592.979827</v>
+      </c>
+      <c r="Y34">
+        <v>592.979827</v>
+      </c>
+    </row>
+    <row r="35" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N35" t="s">
+        <v>85</v>
+      </c>
+      <c r="O35">
+        <v>447.05274300000002</v>
+      </c>
+      <c r="P35">
+        <v>447.05274300000002</v>
+      </c>
+      <c r="W35" t="s">
+        <v>40</v>
+      </c>
+      <c r="X35">
+        <v>626.94085500000006</v>
+      </c>
+      <c r="Y35">
+        <v>626.94085500000006</v>
+      </c>
+    </row>
+    <row r="36" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N36" t="s">
+        <v>86</v>
+      </c>
+      <c r="O36">
+        <v>481.01377100000002</v>
+      </c>
+      <c r="P36">
+        <v>481.01377100000002</v>
+      </c>
+      <c r="W36" t="s">
+        <v>41</v>
+      </c>
+      <c r="X36">
+        <v>660.901883</v>
+      </c>
+      <c r="Y36">
+        <v>660.901883</v>
+      </c>
+    </row>
+    <row r="37" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>87</v>
+      </c>
+      <c r="O37">
+        <v>516.97184900000002</v>
+      </c>
+      <c r="P37">
+        <v>516.97184900000002</v>
+      </c>
+      <c r="W37" t="s">
+        <v>42</v>
+      </c>
+      <c r="X37">
+        <v>696.859961</v>
+      </c>
+      <c r="Y37">
+        <v>696.859961</v>
+      </c>
+    </row>
+    <row r="38" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N38" t="s">
+        <v>88</v>
+      </c>
+      <c r="O38">
+        <v>550.93287699999996</v>
+      </c>
+      <c r="P38">
+        <v>550.93287699999996</v>
+      </c>
+      <c r="W38" t="s">
+        <v>43</v>
+      </c>
+      <c r="X38">
+        <v>730.82098900000005</v>
+      </c>
+      <c r="Y38">
+        <v>730.82098900000005</v>
+      </c>
+    </row>
+    <row r="39" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>89</v>
+      </c>
+      <c r="O39">
+        <v>584.89390500000002</v>
+      </c>
+      <c r="P39">
+        <v>584.89390500000002</v>
+      </c>
+      <c r="W39" t="s">
+        <v>44</v>
+      </c>
+      <c r="X39">
+        <v>764.782017</v>
+      </c>
+      <c r="Y39">
+        <v>764.782017</v>
+      </c>
+    </row>
+    <row r="40" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N40" t="s">
+        <v>90</v>
+      </c>
+      <c r="O40">
+        <v>618.85493299999996</v>
+      </c>
+      <c r="P40">
+        <v>618.85493299999996</v>
+      </c>
+      <c r="W40" t="s">
+        <v>45</v>
+      </c>
+      <c r="X40">
+        <v>798.74304500000005</v>
+      </c>
+      <c r="Y40">
+        <v>798.74304500000005</v>
+      </c>
+    </row>
+    <row r="41" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N41" t="s">
+        <v>91</v>
+      </c>
+      <c r="O41">
+        <v>654.81301099999996</v>
+      </c>
+      <c r="P41">
+        <v>654.81301099999996</v>
+      </c>
+      <c r="W41" t="s">
+        <v>46</v>
+      </c>
+      <c r="X41">
+        <v>834.70112300000005</v>
+      </c>
+      <c r="Y41">
+        <v>834.70112300000005</v>
+      </c>
+    </row>
+    <row r="42" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N42" t="s">
+        <v>92</v>
+      </c>
+      <c r="O42">
+        <v>688.77403900000002</v>
+      </c>
+      <c r="P42">
+        <v>688.77403900000002</v>
+      </c>
+      <c r="W42" t="s">
+        <v>47</v>
+      </c>
+      <c r="X42">
+        <v>868.66215099999999</v>
+      </c>
+      <c r="Y42">
+        <v>868.66215099999999</v>
+      </c>
+    </row>
+    <row r="43" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N43" t="s">
+        <v>93</v>
+      </c>
+      <c r="O43">
+        <v>722.73506699999996</v>
+      </c>
+      <c r="P43">
+        <v>722.73506699999996</v>
+      </c>
+      <c r="W43" t="s">
+        <v>48</v>
+      </c>
+      <c r="X43">
+        <v>902.62317900000005</v>
+      </c>
+      <c r="Y43">
+        <v>902.62317900000005</v>
+      </c>
+    </row>
+    <row r="44" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N44" t="s">
+        <v>94</v>
+      </c>
+      <c r="O44">
+        <v>756.69609500000001</v>
+      </c>
+      <c r="P44">
+        <v>756.69609500000001</v>
+      </c>
+      <c r="W44" t="s">
+        <v>49</v>
+      </c>
+      <c r="X44">
+        <v>936.58420699999999</v>
+      </c>
+      <c r="Y44">
+        <v>936.58420699999999</v>
+      </c>
+    </row>
+    <row r="45" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N45" t="s">
+        <v>95</v>
+      </c>
+      <c r="O45">
+        <v>792.65417300000001</v>
+      </c>
+      <c r="P45">
+        <v>792.65417300000001</v>
+      </c>
+      <c r="W45" t="s">
+        <v>50</v>
+      </c>
+      <c r="X45">
+        <v>972.54228499999999</v>
+      </c>
+      <c r="Y45">
+        <v>972.54228499999999</v>
+      </c>
+    </row>
+    <row r="46" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N46" t="s">
+        <v>96</v>
+      </c>
+      <c r="O46">
+        <v>826.61520099999996</v>
+      </c>
+      <c r="P46">
+        <v>826.61520099999996</v>
+      </c>
+      <c r="W46" t="s">
+        <v>51</v>
+      </c>
+      <c r="X46">
+        <v>1006.503313</v>
+      </c>
+      <c r="Y46">
+        <v>1006.503313</v>
+      </c>
+    </row>
+    <row r="47" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="N47" t="s">
+        <v>97</v>
+      </c>
+      <c r="O47">
+        <v>860.57622900000001</v>
+      </c>
+      <c r="P47">
+        <v>860.57622900000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/products analysis/reference compounds analysis/SCCPProdref list and analysis.xlsx
+++ b/products analysis/reference compounds analysis/SCCPProdref list and analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steven\Target Decoy\products analysis\reference compounds analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2D9311-51F5-4360-85B9-03B5A54BD914}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C009A0A4-8638-4735-A5F4-70D1B40F6F71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12870" yWindow="1140" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{1EB0EB00-CAC1-4803-AD13-83FA2283711D}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="132">
   <si>
     <t>SCCP m/z</t>
   </si>
@@ -2244,10 +2244,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EA8B02-EDED-461E-9BCD-BF411E686BBD}">
-  <dimension ref="A1:AC47"/>
+  <dimension ref="A1:AE47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2258,12 +2258,12 @@
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="5" width="10.140625" style="4" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="22" width="9.28515625" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="9.42578125" customWidth="1"/>
+    <col min="16" max="23" width="9.28515625" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>130</v>
       </c>
@@ -2309,44 +2309,50 @@
       <c r="P1" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" t="s">
         <v>4</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>3</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>5</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>3</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>129</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>6</v>
-      </c>
-      <c r="X1" t="s">
-        <v>2</v>
       </c>
       <c r="Y1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB1" t="s">
         <v>4</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>5</v>
       </c>
       <c r="AC1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>98</v>
       </c>
@@ -2383,17 +2389,25 @@
       <c r="P2">
         <v>405.00579299999998</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Q2" s="4">
+        <f>P2+0.00054858</f>
+        <v>405.00634157999997</v>
+      </c>
+      <c r="X2" t="s">
         <v>7</v>
-      </c>
-      <c r="X2">
-        <v>461.06839300000001</v>
       </c>
       <c r="Y2">
         <v>461.06839300000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z2">
+        <v>461.06839300000001</v>
+      </c>
+      <c r="AA2" s="4">
+        <f>Z2+0.00054858</f>
+        <v>461.06894158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>99</v>
       </c>
@@ -2430,17 +2444,25 @@
       <c r="P3">
         <v>438.96682099999998</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Q3" s="4">
+        <f t="shared" ref="Q3:Q47" si="2">P3+0.00054858</f>
+        <v>438.96736957999997</v>
+      </c>
+      <c r="X3" t="s">
         <v>8</v>
-      </c>
-      <c r="X3">
-        <v>495.02942100000001</v>
       </c>
       <c r="Y3">
         <v>495.02942100000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z3">
+        <v>495.02942100000001</v>
+      </c>
+      <c r="AA3" s="4">
+        <f t="shared" ref="AA3:AA46" si="3">Z3+0.00054858</f>
+        <v>495.02996958</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>100</v>
       </c>
@@ -2477,17 +2499,25 @@
       <c r="P4">
         <v>474.92489899999998</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Q4" s="4">
+        <f t="shared" si="2"/>
+        <v>474.92544757999997</v>
+      </c>
+      <c r="X4" t="s">
         <v>9</v>
-      </c>
-      <c r="X4">
-        <v>530.98749899999996</v>
       </c>
       <c r="Y4">
         <v>530.98749899999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z4">
+        <v>530.98749899999996</v>
+      </c>
+      <c r="AA4" s="4">
+        <f t="shared" si="3"/>
+        <v>530.98804757999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>101</v>
       </c>
@@ -2524,17 +2554,25 @@
       <c r="P5">
         <v>508.88592699999998</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Q5" s="4">
+        <f t="shared" si="2"/>
+        <v>508.88647557999997</v>
+      </c>
+      <c r="X5" t="s">
         <v>10</v>
-      </c>
-      <c r="X5">
-        <v>564.94852700000001</v>
       </c>
       <c r="Y5">
         <v>564.94852700000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z5">
+        <v>564.94852700000001</v>
+      </c>
+      <c r="AA5" s="4">
+        <f t="shared" si="3"/>
+        <v>564.94907558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>102</v>
       </c>
@@ -2561,17 +2599,25 @@
       <c r="P6">
         <v>542.84695499999998</v>
       </c>
-      <c r="W6" t="s">
+      <c r="Q6" s="4">
+        <f t="shared" si="2"/>
+        <v>542.84750357999997</v>
+      </c>
+      <c r="X6" t="s">
         <v>11</v>
-      </c>
-      <c r="X6">
-        <v>598.90955499999995</v>
       </c>
       <c r="Y6">
         <v>598.90955499999995</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z6">
+        <v>598.90955499999995</v>
+      </c>
+      <c r="AA6" s="4">
+        <f t="shared" si="3"/>
+        <v>598.91010357999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>103</v>
       </c>
@@ -2598,17 +2644,25 @@
       <c r="P7">
         <v>576.80798300000004</v>
       </c>
-      <c r="W7" t="s">
+      <c r="Q7" s="4">
+        <f t="shared" si="2"/>
+        <v>576.80853158000002</v>
+      </c>
+      <c r="X7" t="s">
         <v>12</v>
-      </c>
-      <c r="X7">
-        <v>632.87058300000001</v>
       </c>
       <c r="Y7">
         <v>632.87058300000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z7">
+        <v>632.87058300000001</v>
+      </c>
+      <c r="AA7" s="4">
+        <f t="shared" si="3"/>
+        <v>632.87113158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>104</v>
       </c>
@@ -2645,17 +2699,25 @@
       <c r="P8">
         <v>612.76606100000004</v>
       </c>
-      <c r="W8" t="s">
+      <c r="Q8" s="4">
+        <f t="shared" si="2"/>
+        <v>612.76660958000002</v>
+      </c>
+      <c r="X8" t="s">
         <v>13</v>
-      </c>
-      <c r="X8">
-        <v>668.82866100000001</v>
       </c>
       <c r="Y8">
         <v>668.82866100000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z8">
+        <v>668.82866100000001</v>
+      </c>
+      <c r="AA8" s="4">
+        <f t="shared" si="3"/>
+        <v>668.82920958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>105</v>
       </c>
@@ -2692,17 +2754,25 @@
       <c r="P9">
         <v>646.72708899999998</v>
       </c>
-      <c r="W9" t="s">
+      <c r="Q9" s="4">
+        <f t="shared" si="2"/>
+        <v>646.72763757999996</v>
+      </c>
+      <c r="X9" t="s">
         <v>14</v>
-      </c>
-      <c r="X9">
-        <v>702.78968899999995</v>
       </c>
       <c r="Y9">
         <v>702.78968899999995</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z9">
+        <v>702.78968899999995</v>
+      </c>
+      <c r="AA9" s="4">
+        <f t="shared" si="3"/>
+        <v>702.79023757999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>106</v>
       </c>
@@ -2739,17 +2809,25 @@
       <c r="P10">
         <v>680.68811700000003</v>
       </c>
-      <c r="W10" t="s">
+      <c r="Q10" s="4">
+        <f t="shared" si="2"/>
+        <v>680.68866558000002</v>
+      </c>
+      <c r="X10" t="s">
         <v>15</v>
-      </c>
-      <c r="X10">
-        <v>736.75071700000001</v>
       </c>
       <c r="Y10">
         <v>736.75071700000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z10">
+        <v>736.75071700000001</v>
+      </c>
+      <c r="AA10" s="4">
+        <f t="shared" si="3"/>
+        <v>736.75126557999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>107</v>
       </c>
@@ -2783,17 +2861,25 @@
       <c r="P11">
         <v>714.64914499999998</v>
       </c>
-      <c r="W11" t="s">
+      <c r="Q11" s="4">
+        <f t="shared" si="2"/>
+        <v>714.64969357999996</v>
+      </c>
+      <c r="X11" t="s">
         <v>16</v>
-      </c>
-      <c r="X11">
-        <v>770.71174499999995</v>
       </c>
       <c r="Y11">
         <v>770.71174499999995</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z11">
+        <v>770.71174499999995</v>
+      </c>
+      <c r="AA11" s="4">
+        <f t="shared" si="3"/>
+        <v>770.71229357999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>108</v>
       </c>
@@ -2827,17 +2913,25 @@
       <c r="P12">
         <v>419.02144299999998</v>
       </c>
-      <c r="W12" t="s">
+      <c r="Q12" s="4">
+        <f t="shared" si="2"/>
+        <v>419.02199157999996</v>
+      </c>
+      <c r="X12" t="s">
         <v>17</v>
-      </c>
-      <c r="X12">
-        <v>806.66982299999995</v>
       </c>
       <c r="Y12">
         <v>806.66982299999995</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z12">
+        <v>806.66982299999995</v>
+      </c>
+      <c r="AA12" s="4">
+        <f t="shared" si="3"/>
+        <v>806.67037157999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>109</v>
       </c>
@@ -2864,17 +2958,25 @@
       <c r="P13">
         <v>452.98247099999998</v>
       </c>
-      <c r="W13" t="s">
+      <c r="Q13" s="4">
+        <f t="shared" si="2"/>
+        <v>452.98301957999996</v>
+      </c>
+      <c r="X13" t="s">
         <v>18</v>
-      </c>
-      <c r="X13">
-        <v>840.63085100000001</v>
       </c>
       <c r="Y13">
         <v>840.63085100000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z13">
+        <v>840.63085100000001</v>
+      </c>
+      <c r="AA13" s="4">
+        <f t="shared" si="3"/>
+        <v>840.63139957999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>110</v>
       </c>
@@ -2901,17 +3003,25 @@
       <c r="P14">
         <v>488.94054899999998</v>
       </c>
-      <c r="W14" t="s">
+      <c r="Q14" s="4">
+        <f t="shared" si="2"/>
+        <v>488.94109757999996</v>
+      </c>
+      <c r="X14" t="s">
         <v>19</v>
-      </c>
-      <c r="X14">
-        <v>874.59187899999995</v>
       </c>
       <c r="Y14">
         <v>874.59187899999995</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z14">
+        <v>874.59187899999995</v>
+      </c>
+      <c r="AA14" s="4">
+        <f t="shared" si="3"/>
+        <v>874.59242757999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>111</v>
       </c>
@@ -2945,17 +3055,25 @@
       <c r="P15">
         <v>522.90157699999997</v>
       </c>
-      <c r="W15" t="s">
+      <c r="Q15" s="4">
+        <f t="shared" si="2"/>
+        <v>522.90212557999996</v>
+      </c>
+      <c r="X15" t="s">
         <v>20</v>
-      </c>
-      <c r="X15">
-        <v>908.552907</v>
       </c>
       <c r="Y15">
         <v>908.552907</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Z15">
+        <v>908.552907</v>
+      </c>
+      <c r="AA15" s="4">
+        <f t="shared" si="3"/>
+        <v>908.55345557999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>112</v>
       </c>
@@ -2989,17 +3107,25 @@
       <c r="P16">
         <v>556.86260500000003</v>
       </c>
-      <c r="W16" t="s">
+      <c r="Q16" s="4">
+        <f t="shared" si="2"/>
+        <v>556.86315358000002</v>
+      </c>
+      <c r="X16" t="s">
         <v>21</v>
-      </c>
-      <c r="X16">
-        <v>475.08404300000001</v>
       </c>
       <c r="Y16">
         <v>475.08404300000001</v>
       </c>
-    </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z16">
+        <v>475.08404300000001</v>
+      </c>
+      <c r="AA16" s="4">
+        <f t="shared" si="3"/>
+        <v>475.08459157999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>113</v>
       </c>
@@ -3033,17 +3159,25 @@
       <c r="P17">
         <v>590.82363299999997</v>
       </c>
-      <c r="W17" t="s">
+      <c r="Q17" s="4">
+        <f t="shared" si="2"/>
+        <v>590.82418157999996</v>
+      </c>
+      <c r="X17" t="s">
         <v>22</v>
-      </c>
-      <c r="X17">
-        <v>509.04507100000001</v>
       </c>
       <c r="Y17">
         <v>509.04507100000001</v>
       </c>
-    </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z17">
+        <v>509.04507100000001</v>
+      </c>
+      <c r="AA17" s="4">
+        <f t="shared" si="3"/>
+        <v>509.04561957999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>114</v>
       </c>
@@ -3074,17 +3208,25 @@
       <c r="P18">
         <v>626.78171099999997</v>
       </c>
-      <c r="W18" t="s">
+      <c r="Q18" s="4">
+        <f t="shared" si="2"/>
+        <v>626.78225957999996</v>
+      </c>
+      <c r="X18" t="s">
         <v>23</v>
-      </c>
-      <c r="X18">
-        <v>545.00314900000001</v>
       </c>
       <c r="Y18">
         <v>545.00314900000001</v>
       </c>
-    </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z18">
+        <v>545.00314900000001</v>
+      </c>
+      <c r="AA18" s="4">
+        <f t="shared" si="3"/>
+        <v>545.00369757999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>115</v>
       </c>
@@ -3115,17 +3257,25 @@
       <c r="P19">
         <v>660.74273900000003</v>
       </c>
-      <c r="W19" t="s">
+      <c r="Q19" s="4">
+        <f t="shared" si="2"/>
+        <v>660.74328758000001</v>
+      </c>
+      <c r="X19" t="s">
         <v>24</v>
-      </c>
-      <c r="X19">
-        <v>578.96417699999995</v>
       </c>
       <c r="Y19">
         <v>578.96417699999995</v>
       </c>
-    </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z19">
+        <v>578.96417699999995</v>
+      </c>
+      <c r="AA19" s="4">
+        <f t="shared" si="3"/>
+        <v>578.96472557999994</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>116</v>
       </c>
@@ -3156,17 +3306,25 @@
       <c r="P20">
         <v>694.70376699999997</v>
       </c>
-      <c r="W20" t="s">
+      <c r="Q20" s="4">
+        <f t="shared" si="2"/>
+        <v>694.70431557999996</v>
+      </c>
+      <c r="X20" t="s">
         <v>25</v>
-      </c>
-      <c r="X20">
-        <v>612.92520500000001</v>
       </c>
       <c r="Y20">
         <v>612.92520500000001</v>
       </c>
-    </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z20">
+        <v>612.92520500000001</v>
+      </c>
+      <c r="AA20" s="4">
+        <f t="shared" si="3"/>
+        <v>612.92575357999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>117</v>
       </c>
@@ -3197,17 +3355,25 @@
       <c r="P21">
         <v>728.66479500000003</v>
       </c>
-      <c r="W21" t="s">
+      <c r="Q21" s="4">
+        <f t="shared" si="2"/>
+        <v>728.66534358000001</v>
+      </c>
+      <c r="X21" t="s">
         <v>26</v>
-      </c>
-      <c r="X21">
-        <v>646.88623299999995</v>
       </c>
       <c r="Y21">
         <v>646.88623299999995</v>
       </c>
-    </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z21">
+        <v>646.88623299999995</v>
+      </c>
+      <c r="AA21" s="4">
+        <f t="shared" si="3"/>
+        <v>646.88678157999993</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>118</v>
       </c>
@@ -3238,17 +3404,25 @@
       <c r="P22">
         <v>764.62287300000003</v>
       </c>
-      <c r="W22" t="s">
+      <c r="Q22" s="4">
+        <f t="shared" si="2"/>
+        <v>764.62342158000001</v>
+      </c>
+      <c r="X22" t="s">
         <v>27</v>
-      </c>
-      <c r="X22">
-        <v>682.84431099999995</v>
       </c>
       <c r="Y22">
         <v>682.84431099999995</v>
       </c>
-    </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z22">
+        <v>682.84431099999995</v>
+      </c>
+      <c r="AA22" s="4">
+        <f t="shared" si="3"/>
+        <v>682.84485957999993</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>119</v>
       </c>
@@ -3279,17 +3453,25 @@
       <c r="P23">
         <v>433.03709300000003</v>
       </c>
-      <c r="W23" t="s">
+      <c r="Q23" s="4">
+        <f t="shared" si="2"/>
+        <v>433.03764158000001</v>
+      </c>
+      <c r="X23" t="s">
         <v>28</v>
-      </c>
-      <c r="X23">
-        <v>716.805339</v>
       </c>
       <c r="Y23">
         <v>716.805339</v>
       </c>
-    </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z23">
+        <v>716.805339</v>
+      </c>
+      <c r="AA23" s="4">
+        <f t="shared" si="3"/>
+        <v>716.80588757999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>120</v>
       </c>
@@ -3320,17 +3502,25 @@
       <c r="P24">
         <v>466.99812100000003</v>
       </c>
-      <c r="W24" t="s">
+      <c r="Q24" s="4">
+        <f t="shared" si="2"/>
+        <v>466.99866958000001</v>
+      </c>
+      <c r="X24" t="s">
         <v>29</v>
-      </c>
-      <c r="X24">
-        <v>750.76636699999995</v>
       </c>
       <c r="Y24">
         <v>750.76636699999995</v>
       </c>
-    </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z24">
+        <v>750.76636699999995</v>
+      </c>
+      <c r="AA24" s="4">
+        <f t="shared" si="3"/>
+        <v>750.76691557999993</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>121</v>
       </c>
@@ -3361,17 +3551,25 @@
       <c r="P25">
         <v>502.95619900000003</v>
       </c>
-      <c r="W25" t="s">
+      <c r="Q25" s="4">
+        <f t="shared" si="2"/>
+        <v>502.95674758000001</v>
+      </c>
+      <c r="X25" t="s">
         <v>30</v>
-      </c>
-      <c r="X25">
-        <v>784.727395</v>
       </c>
       <c r="Y25">
         <v>784.727395</v>
       </c>
-    </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z25">
+        <v>784.727395</v>
+      </c>
+      <c r="AA25" s="4">
+        <f t="shared" si="3"/>
+        <v>784.72794357999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>122</v>
       </c>
@@ -3402,17 +3600,25 @@
       <c r="P26">
         <v>536.91722700000003</v>
       </c>
-      <c r="W26" t="s">
+      <c r="Q26" s="4">
+        <f t="shared" si="2"/>
+        <v>536.91777558000001</v>
+      </c>
+      <c r="X26" t="s">
         <v>31</v>
-      </c>
-      <c r="X26">
-        <v>820.685473</v>
       </c>
       <c r="Y26">
         <v>820.685473</v>
       </c>
-    </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z26">
+        <v>820.685473</v>
+      </c>
+      <c r="AA26" s="4">
+        <f t="shared" si="3"/>
+        <v>820.68602157999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>123</v>
       </c>
@@ -3443,17 +3649,25 @@
       <c r="P27">
         <v>570.87825499999997</v>
       </c>
-      <c r="W27" t="s">
+      <c r="Q27" s="4">
+        <f t="shared" si="2"/>
+        <v>570.87880357999995</v>
+      </c>
+      <c r="X27" t="s">
         <v>32</v>
-      </c>
-      <c r="X27">
-        <v>854.64650099999994</v>
       </c>
       <c r="Y27">
         <v>854.64650099999994</v>
       </c>
-    </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z27">
+        <v>854.64650099999994</v>
+      </c>
+      <c r="AA27" s="4">
+        <f t="shared" si="3"/>
+        <v>854.64704957999993</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>124</v>
       </c>
@@ -3484,17 +3698,25 @@
       <c r="P28">
         <v>604.83928300000002</v>
       </c>
-      <c r="W28" t="s">
+      <c r="Q28" s="4">
+        <f t="shared" si="2"/>
+        <v>604.83983158000001</v>
+      </c>
+      <c r="X28" t="s">
         <v>33</v>
-      </c>
-      <c r="X28">
-        <v>888.607529</v>
       </c>
       <c r="Y28">
         <v>888.607529</v>
       </c>
-    </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z28">
+        <v>888.607529</v>
+      </c>
+      <c r="AA28" s="4">
+        <f t="shared" si="3"/>
+        <v>888.60807757999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>125</v>
       </c>
@@ -3525,17 +3747,25 @@
       <c r="P29">
         <v>640.79736100000002</v>
       </c>
-      <c r="W29" t="s">
+      <c r="Q29" s="4">
+        <f t="shared" si="2"/>
+        <v>640.79790958000001</v>
+      </c>
+      <c r="X29" t="s">
         <v>34</v>
-      </c>
-      <c r="X29">
-        <v>922.56855700000006</v>
       </c>
       <c r="Y29">
         <v>922.56855700000006</v>
       </c>
-    </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z29">
+        <v>922.56855700000006</v>
+      </c>
+      <c r="AA29" s="4">
+        <f t="shared" si="3"/>
+        <v>922.56910558000004</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>126</v>
       </c>
@@ -3566,17 +3796,25 @@
       <c r="P30">
         <v>674.75838899999997</v>
       </c>
-      <c r="W30" t="s">
+      <c r="Q30" s="4">
+        <f t="shared" si="2"/>
+        <v>674.75893757999995</v>
+      </c>
+      <c r="X30" t="s">
         <v>35</v>
-      </c>
-      <c r="X30">
-        <v>958.52663500000006</v>
       </c>
       <c r="Y30">
         <v>958.52663500000006</v>
       </c>
-    </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z30">
+        <v>958.52663500000006</v>
+      </c>
+      <c r="AA30" s="4">
+        <f t="shared" si="3"/>
+        <v>958.52718358000004</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>127</v>
       </c>
@@ -3607,17 +3845,25 @@
       <c r="P31">
         <v>708.71941700000002</v>
       </c>
-      <c r="W31" t="s">
+      <c r="Q31" s="4">
+        <f t="shared" si="2"/>
+        <v>708.71996558000001</v>
+      </c>
+      <c r="X31" t="s">
         <v>36</v>
-      </c>
-      <c r="X31">
-        <v>489.099693</v>
       </c>
       <c r="Y31">
         <v>489.099693</v>
       </c>
-    </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z31">
+        <v>489.099693</v>
+      </c>
+      <c r="AA31" s="4">
+        <f t="shared" si="3"/>
+        <v>489.10024157999999</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="N32" t="s">
         <v>82</v>
       </c>
@@ -3627,17 +3873,25 @@
       <c r="P32">
         <v>742.68044499999996</v>
       </c>
-      <c r="W32" t="s">
+      <c r="Q32" s="4">
+        <f t="shared" si="2"/>
+        <v>742.68099357999995</v>
+      </c>
+      <c r="X32" t="s">
         <v>37</v>
-      </c>
-      <c r="X32">
-        <v>523.06072099999994</v>
       </c>
       <c r="Y32">
         <v>523.06072099999994</v>
       </c>
-    </row>
-    <row r="33" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="Z32">
+        <v>523.06072099999994</v>
+      </c>
+      <c r="AA32" s="4">
+        <f t="shared" si="3"/>
+        <v>523.06126957999993</v>
+      </c>
+    </row>
+    <row r="33" spans="14:27" x14ac:dyDescent="0.25">
       <c r="N33" t="s">
         <v>83</v>
       </c>
@@ -3647,17 +3901,25 @@
       <c r="P33">
         <v>778.63852299999996</v>
       </c>
-      <c r="W33" t="s">
+      <c r="Q33" s="4">
+        <f t="shared" si="2"/>
+        <v>778.63907157999995</v>
+      </c>
+      <c r="X33" t="s">
         <v>38</v>
-      </c>
-      <c r="X33">
-        <v>559.01879899999994</v>
       </c>
       <c r="Y33">
         <v>559.01879899999994</v>
       </c>
-    </row>
-    <row r="34" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="Z33">
+        <v>559.01879899999994</v>
+      </c>
+      <c r="AA33" s="4">
+        <f t="shared" si="3"/>
+        <v>559.01934757999993</v>
+      </c>
+    </row>
+    <row r="34" spans="14:27" x14ac:dyDescent="0.25">
       <c r="N34" t="s">
         <v>84</v>
       </c>
@@ -3667,17 +3929,25 @@
       <c r="P34">
         <v>812.59955100000002</v>
       </c>
-      <c r="W34" t="s">
+      <c r="Q34" s="4">
+        <f t="shared" si="2"/>
+        <v>812.60009958000001</v>
+      </c>
+      <c r="X34" t="s">
         <v>39</v>
-      </c>
-      <c r="X34">
-        <v>592.979827</v>
       </c>
       <c r="Y34">
         <v>592.979827</v>
       </c>
-    </row>
-    <row r="35" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="Z34">
+        <v>592.979827</v>
+      </c>
+      <c r="AA34" s="4">
+        <f t="shared" si="3"/>
+        <v>592.98037557999999</v>
+      </c>
+    </row>
+    <row r="35" spans="14:27" x14ac:dyDescent="0.25">
       <c r="N35" t="s">
         <v>85</v>
       </c>
@@ -3687,17 +3957,25 @@
       <c r="P35">
         <v>447.05274300000002</v>
       </c>
-      <c r="W35" t="s">
+      <c r="Q35" s="4">
+        <f t="shared" si="2"/>
+        <v>447.05329158000001</v>
+      </c>
+      <c r="X35" t="s">
         <v>40</v>
-      </c>
-      <c r="X35">
-        <v>626.94085500000006</v>
       </c>
       <c r="Y35">
         <v>626.94085500000006</v>
       </c>
-    </row>
-    <row r="36" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="Z35">
+        <v>626.94085500000006</v>
+      </c>
+      <c r="AA35" s="4">
+        <f t="shared" si="3"/>
+        <v>626.94140358000004</v>
+      </c>
+    </row>
+    <row r="36" spans="14:27" x14ac:dyDescent="0.25">
       <c r="N36" t="s">
         <v>86</v>
       </c>
@@ -3707,17 +3985,25 @@
       <c r="P36">
         <v>481.01377100000002</v>
       </c>
-      <c r="W36" t="s">
+      <c r="Q36" s="4">
+        <f t="shared" si="2"/>
+        <v>481.01431958000001</v>
+      </c>
+      <c r="X36" t="s">
         <v>41</v>
-      </c>
-      <c r="X36">
-        <v>660.901883</v>
       </c>
       <c r="Y36">
         <v>660.901883</v>
       </c>
-    </row>
-    <row r="37" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="Z36">
+        <v>660.901883</v>
+      </c>
+      <c r="AA36" s="4">
+        <f t="shared" si="3"/>
+        <v>660.90243157999998</v>
+      </c>
+    </row>
+    <row r="37" spans="14:27" x14ac:dyDescent="0.25">
       <c r="N37" t="s">
         <v>87</v>
       </c>
@@ -3727,17 +4013,25 @@
       <c r="P37">
         <v>516.97184900000002</v>
       </c>
-      <c r="W37" t="s">
+      <c r="Q37" s="4">
+        <f t="shared" si="2"/>
+        <v>516.97239758000001</v>
+      </c>
+      <c r="X37" t="s">
         <v>42</v>
-      </c>
-      <c r="X37">
-        <v>696.859961</v>
       </c>
       <c r="Y37">
         <v>696.859961</v>
       </c>
-    </row>
-    <row r="38" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="Z37">
+        <v>696.859961</v>
+      </c>
+      <c r="AA37" s="4">
+        <f t="shared" si="3"/>
+        <v>696.86050957999998</v>
+      </c>
+    </row>
+    <row r="38" spans="14:27" x14ac:dyDescent="0.25">
       <c r="N38" t="s">
         <v>88</v>
       </c>
@@ -3747,17 +4041,25 @@
       <c r="P38">
         <v>550.93287699999996</v>
       </c>
-      <c r="W38" t="s">
+      <c r="Q38" s="4">
+        <f t="shared" si="2"/>
+        <v>550.93342557999995</v>
+      </c>
+      <c r="X38" t="s">
         <v>43</v>
-      </c>
-      <c r="X38">
-        <v>730.82098900000005</v>
       </c>
       <c r="Y38">
         <v>730.82098900000005</v>
       </c>
-    </row>
-    <row r="39" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="Z38">
+        <v>730.82098900000005</v>
+      </c>
+      <c r="AA38" s="4">
+        <f t="shared" si="3"/>
+        <v>730.82153758000004</v>
+      </c>
+    </row>
+    <row r="39" spans="14:27" x14ac:dyDescent="0.25">
       <c r="N39" t="s">
         <v>89</v>
       </c>
@@ -3767,17 +4069,25 @@
       <c r="P39">
         <v>584.89390500000002</v>
       </c>
-      <c r="W39" t="s">
+      <c r="Q39" s="4">
+        <f t="shared" si="2"/>
+        <v>584.89445358</v>
+      </c>
+      <c r="X39" t="s">
         <v>44</v>
-      </c>
-      <c r="X39">
-        <v>764.782017</v>
       </c>
       <c r="Y39">
         <v>764.782017</v>
       </c>
-    </row>
-    <row r="40" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="Z39">
+        <v>764.782017</v>
+      </c>
+      <c r="AA39" s="4">
+        <f t="shared" si="3"/>
+        <v>764.78256557999998</v>
+      </c>
+    </row>
+    <row r="40" spans="14:27" x14ac:dyDescent="0.25">
       <c r="N40" t="s">
         <v>90</v>
       </c>
@@ -3787,17 +4097,25 @@
       <c r="P40">
         <v>618.85493299999996</v>
       </c>
-      <c r="W40" t="s">
+      <c r="Q40" s="4">
+        <f t="shared" si="2"/>
+        <v>618.85548157999995</v>
+      </c>
+      <c r="X40" t="s">
         <v>45</v>
-      </c>
-      <c r="X40">
-        <v>798.74304500000005</v>
       </c>
       <c r="Y40">
         <v>798.74304500000005</v>
       </c>
-    </row>
-    <row r="41" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="Z40">
+        <v>798.74304500000005</v>
+      </c>
+      <c r="AA40" s="4">
+        <f t="shared" si="3"/>
+        <v>798.74359358000004</v>
+      </c>
+    </row>
+    <row r="41" spans="14:27" x14ac:dyDescent="0.25">
       <c r="N41" t="s">
         <v>91</v>
       </c>
@@ -3807,17 +4125,25 @@
       <c r="P41">
         <v>654.81301099999996</v>
       </c>
-      <c r="W41" t="s">
+      <c r="Q41" s="4">
+        <f t="shared" si="2"/>
+        <v>654.81355957999995</v>
+      </c>
+      <c r="X41" t="s">
         <v>46</v>
-      </c>
-      <c r="X41">
-        <v>834.70112300000005</v>
       </c>
       <c r="Y41">
         <v>834.70112300000005</v>
       </c>
-    </row>
-    <row r="42" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="Z41">
+        <v>834.70112300000005</v>
+      </c>
+      <c r="AA41" s="4">
+        <f t="shared" si="3"/>
+        <v>834.70167158000004</v>
+      </c>
+    </row>
+    <row r="42" spans="14:27" x14ac:dyDescent="0.25">
       <c r="N42" t="s">
         <v>92</v>
       </c>
@@ -3827,17 +4153,25 @@
       <c r="P42">
         <v>688.77403900000002</v>
       </c>
-      <c r="W42" t="s">
+      <c r="Q42" s="4">
+        <f t="shared" si="2"/>
+        <v>688.77458758</v>
+      </c>
+      <c r="X42" t="s">
         <v>47</v>
-      </c>
-      <c r="X42">
-        <v>868.66215099999999</v>
       </c>
       <c r="Y42">
         <v>868.66215099999999</v>
       </c>
-    </row>
-    <row r="43" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="Z42">
+        <v>868.66215099999999</v>
+      </c>
+      <c r="AA42" s="4">
+        <f t="shared" si="3"/>
+        <v>868.66269957999998</v>
+      </c>
+    </row>
+    <row r="43" spans="14:27" x14ac:dyDescent="0.25">
       <c r="N43" t="s">
         <v>93</v>
       </c>
@@ -3847,17 +4181,25 @@
       <c r="P43">
         <v>722.73506699999996</v>
       </c>
-      <c r="W43" t="s">
+      <c r="Q43" s="4">
+        <f t="shared" si="2"/>
+        <v>722.73561557999994</v>
+      </c>
+      <c r="X43" t="s">
         <v>48</v>
-      </c>
-      <c r="X43">
-        <v>902.62317900000005</v>
       </c>
       <c r="Y43">
         <v>902.62317900000005</v>
       </c>
-    </row>
-    <row r="44" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="Z43">
+        <v>902.62317900000005</v>
+      </c>
+      <c r="AA43" s="4">
+        <f t="shared" si="3"/>
+        <v>902.62372758000004</v>
+      </c>
+    </row>
+    <row r="44" spans="14:27" x14ac:dyDescent="0.25">
       <c r="N44" t="s">
         <v>94</v>
       </c>
@@ -3867,17 +4209,25 @@
       <c r="P44">
         <v>756.69609500000001</v>
       </c>
-      <c r="W44" t="s">
+      <c r="Q44" s="4">
+        <f t="shared" si="2"/>
+        <v>756.69664358</v>
+      </c>
+      <c r="X44" t="s">
         <v>49</v>
-      </c>
-      <c r="X44">
-        <v>936.58420699999999</v>
       </c>
       <c r="Y44">
         <v>936.58420699999999</v>
       </c>
-    </row>
-    <row r="45" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="Z44">
+        <v>936.58420699999999</v>
+      </c>
+      <c r="AA44" s="4">
+        <f t="shared" si="3"/>
+        <v>936.58475557999998</v>
+      </c>
+    </row>
+    <row r="45" spans="14:27" x14ac:dyDescent="0.25">
       <c r="N45" t="s">
         <v>95</v>
       </c>
@@ -3887,17 +4237,25 @@
       <c r="P45">
         <v>792.65417300000001</v>
       </c>
-      <c r="W45" t="s">
+      <c r="Q45" s="4">
+        <f t="shared" si="2"/>
+        <v>792.65472158</v>
+      </c>
+      <c r="X45" t="s">
         <v>50</v>
-      </c>
-      <c r="X45">
-        <v>972.54228499999999</v>
       </c>
       <c r="Y45">
         <v>972.54228499999999</v>
       </c>
-    </row>
-    <row r="46" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="Z45">
+        <v>972.54228499999999</v>
+      </c>
+      <c r="AA45" s="4">
+        <f t="shared" si="3"/>
+        <v>972.54283357999998</v>
+      </c>
+    </row>
+    <row r="46" spans="14:27" x14ac:dyDescent="0.25">
       <c r="N46" t="s">
         <v>96</v>
       </c>
@@ -3907,17 +4265,25 @@
       <c r="P46">
         <v>826.61520099999996</v>
       </c>
-      <c r="W46" t="s">
+      <c r="Q46" s="4">
+        <f t="shared" si="2"/>
+        <v>826.61574957999994</v>
+      </c>
+      <c r="X46" t="s">
         <v>51</v>
-      </c>
-      <c r="X46">
-        <v>1006.503313</v>
       </c>
       <c r="Y46">
         <v>1006.503313</v>
       </c>
-    </row>
-    <row r="47" spans="14:25" x14ac:dyDescent="0.25">
+      <c r="Z46">
+        <v>1006.503313</v>
+      </c>
+      <c r="AA46" s="4">
+        <f t="shared" si="3"/>
+        <v>1006.50386158</v>
+      </c>
+    </row>
+    <row r="47" spans="14:27" x14ac:dyDescent="0.25">
       <c r="N47" t="s">
         <v>97</v>
       </c>
@@ -3926,6 +4292,10 @@
       </c>
       <c r="P47">
         <v>860.57622900000001</v>
+      </c>
+      <c r="Q47" s="4">
+        <f t="shared" si="2"/>
+        <v>860.57677758</v>
       </c>
     </row>
   </sheetData>

--- a/products analysis/reference compounds analysis/SCCPProdref list and analysis.xlsx
+++ b/products analysis/reference compounds analysis/SCCPProdref list and analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Steven\Target Decoy\products analysis\reference compounds analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C009A0A4-8638-4735-A5F4-70D1B40F6F71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E57608-6FDD-4A02-B9EC-EBCCE91ECBD1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12870" yWindow="1140" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{1EB0EB00-CAC1-4803-AD13-83FA2283711D}"/>
+    <workbookView xWindow="6675" yWindow="270" windowWidth="21600" windowHeight="11385" xr2:uid="{1EB0EB00-CAC1-4803-AD13-83FA2283711D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample100" sheetId="1" r:id="rId1"/>
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F26ABEB-F7B0-4AE9-90A1-67889DFCE138}">
   <dimension ref="A1:AA47"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:AB1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,8 +2246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55EA8B02-EDED-461E-9BCD-BF411E686BBD}">
   <dimension ref="A1:AE47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
